--- a/030_設計ドキュメント/020_サンプル/020_共通コンポーネント設計/共通コンポーネント設計書_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/020_共通コンポーネント設計/共通コンポーネント設計書_サンプル.xlsx
@@ -1452,6 +1452,117 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1488,161 +1599,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1650,13 +1659,160 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1664,162 +1820,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2250,19 +2250,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="3162300"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2171700" y="3314700"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2280,27 +2280,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2308,27 +2296,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2345,19 +2321,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="828675" y="3362325"/>
+        <a:xfrm rot="20636203">
+          <a:off x="981075" y="3514725"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2375,27 +2351,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2403,27 +2367,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2440,19 +2392,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="3371850"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1257300" y="3524250"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2470,27 +2422,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2498,27 +2438,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -5315,19 +5243,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="2743200"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1257300" y="2895600"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5345,27 +5273,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -5373,27 +5289,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -5404,20 +5308,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1819275" y="9420225"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1971675" y="9572625"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5435,27 +5339,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -5463,27 +5355,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6530,57 +6410,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="127" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="120">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="93">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="95"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -6588,53 +6468,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="120" t="str">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="93" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="95"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -6642,45 +6522,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="95"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6717,1034 +6597,1190 @@
       <c r="A7" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="123" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="E7" s="98"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="126" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="123" t="s">
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="123" t="s">
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="124"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="97"/>
     </row>
     <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108">
+      <c r="C8" s="143"/>
+      <c r="D8" s="144">
         <v>43336</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111" t="s">
+      <c r="E8" s="145"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114" t="s">
+      <c r="H8" s="148"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="117" t="s">
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="118"/>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="114" t="s">
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="155"/>
+      <c r="AF8" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="116"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="152"/>
     </row>
     <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="101"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="136"/>
+      <c r="AG9" s="137"/>
+      <c r="AH9" s="137"/>
+      <c r="AI9" s="138"/>
     </row>
     <row r="10" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="101"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="140"/>
+      <c r="AD10" s="140"/>
+      <c r="AE10" s="141"/>
+      <c r="AF10" s="136"/>
+      <c r="AG10" s="137"/>
+      <c r="AH10" s="137"/>
+      <c r="AI10" s="138"/>
     </row>
     <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="101"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="140"/>
+      <c r="AD11" s="140"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="138"/>
     </row>
     <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="101"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="139"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="136"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="138"/>
     </row>
     <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="101"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="140"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="136"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="138"/>
     </row>
     <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="101"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="137"/>
+      <c r="AH14" s="137"/>
+      <c r="AI14" s="138"/>
     </row>
     <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="100"/>
-      <c r="AI15" s="101"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="140"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="140"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+      <c r="AD15" s="140"/>
+      <c r="AE15" s="141"/>
+      <c r="AF15" s="136"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="138"/>
     </row>
     <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="101"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="141"/>
+      <c r="AF16" s="136"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="138"/>
     </row>
     <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="100"/>
-      <c r="AI17" s="101"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="140"/>
+      <c r="S17" s="140"/>
+      <c r="T17" s="140"/>
+      <c r="U17" s="140"/>
+      <c r="V17" s="140"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="140"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="140"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="136"/>
+      <c r="AG17" s="137"/>
+      <c r="AH17" s="137"/>
+      <c r="AI17" s="138"/>
     </row>
     <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="101"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="140"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="141"/>
+      <c r="AF18" s="136"/>
+      <c r="AG18" s="137"/>
+      <c r="AH18" s="137"/>
+      <c r="AI18" s="138"/>
     </row>
     <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="101"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="141"/>
+      <c r="AF19" s="136"/>
+      <c r="AG19" s="137"/>
+      <c r="AH19" s="137"/>
+      <c r="AI19" s="138"/>
     </row>
     <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="101"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="140"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140"/>
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="140"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="141"/>
+      <c r="AF20" s="136"/>
+      <c r="AG20" s="137"/>
+      <c r="AH20" s="137"/>
+      <c r="AI20" s="138"/>
     </row>
     <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="101"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="140"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="140"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="140"/>
+      <c r="Z21" s="140"/>
+      <c r="AA21" s="140"/>
+      <c r="AB21" s="140"/>
+      <c r="AC21" s="140"/>
+      <c r="AD21" s="140"/>
+      <c r="AE21" s="141"/>
+      <c r="AF21" s="136"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="138"/>
     </row>
     <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="100"/>
-      <c r="AI22" s="101"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="140"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
+      <c r="Z22" s="140"/>
+      <c r="AA22" s="140"/>
+      <c r="AB22" s="140"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="140"/>
+      <c r="AE22" s="141"/>
+      <c r="AF22" s="136"/>
+      <c r="AG22" s="137"/>
+      <c r="AH22" s="137"/>
+      <c r="AI22" s="138"/>
     </row>
     <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="100"/>
-      <c r="AH23" s="100"/>
-      <c r="AI23" s="101"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="140"/>
+      <c r="V23" s="140"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="140"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="140"/>
+      <c r="AA23" s="140"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="141"/>
+      <c r="AF23" s="136"/>
+      <c r="AG23" s="137"/>
+      <c r="AH23" s="137"/>
+      <c r="AI23" s="138"/>
     </row>
     <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="101"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="140"/>
+      <c r="V24" s="140"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="140"/>
+      <c r="Z24" s="140"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="140"/>
+      <c r="AC24" s="140"/>
+      <c r="AD24" s="140"/>
+      <c r="AE24" s="141"/>
+      <c r="AF24" s="136"/>
+      <c r="AG24" s="137"/>
+      <c r="AH24" s="137"/>
+      <c r="AI24" s="138"/>
     </row>
     <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="104"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="100"/>
-      <c r="AH25" s="100"/>
-      <c r="AI25" s="101"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="139"/>
+      <c r="R25" s="140"/>
+      <c r="S25" s="140"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="140"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="140"/>
+      <c r="X25" s="140"/>
+      <c r="Y25" s="140"/>
+      <c r="Z25" s="140"/>
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="140"/>
+      <c r="AE25" s="141"/>
+      <c r="AF25" s="136"/>
+      <c r="AG25" s="137"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="138"/>
     </row>
     <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="100"/>
-      <c r="AI26" s="101"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="140"/>
+      <c r="AA26" s="140"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="141"/>
+      <c r="AF26" s="136"/>
+      <c r="AG26" s="137"/>
+      <c r="AH26" s="137"/>
+      <c r="AI26" s="138"/>
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="101"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="140"/>
+      <c r="S27" s="140"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="140"/>
+      <c r="V27" s="140"/>
+      <c r="W27" s="140"/>
+      <c r="X27" s="140"/>
+      <c r="Y27" s="140"/>
+      <c r="Z27" s="140"/>
+      <c r="AA27" s="140"/>
+      <c r="AB27" s="140"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="140"/>
+      <c r="AE27" s="141"/>
+      <c r="AF27" s="136"/>
+      <c r="AG27" s="137"/>
+      <c r="AH27" s="137"/>
+      <c r="AI27" s="138"/>
     </row>
     <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="101"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="140"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="140"/>
+      <c r="W28" s="140"/>
+      <c r="X28" s="140"/>
+      <c r="Y28" s="140"/>
+      <c r="Z28" s="140"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="140"/>
+      <c r="AE28" s="141"/>
+      <c r="AF28" s="136"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="138"/>
     </row>
     <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="104"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="100"/>
-      <c r="AH29" s="100"/>
-      <c r="AI29" s="101"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="140"/>
+      <c r="S29" s="140"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="140"/>
+      <c r="V29" s="140"/>
+      <c r="W29" s="140"/>
+      <c r="X29" s="140"/>
+      <c r="Y29" s="140"/>
+      <c r="Z29" s="140"/>
+      <c r="AA29" s="140"/>
+      <c r="AB29" s="140"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="140"/>
+      <c r="AE29" s="141"/>
+      <c r="AF29" s="136"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="138"/>
     </row>
     <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="100"/>
-      <c r="AH30" s="100"/>
-      <c r="AI30" s="101"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="138"/>
+      <c r="Q30" s="139"/>
+      <c r="R30" s="140"/>
+      <c r="S30" s="140"/>
+      <c r="T30" s="140"/>
+      <c r="U30" s="140"/>
+      <c r="V30" s="140"/>
+      <c r="W30" s="140"/>
+      <c r="X30" s="140"/>
+      <c r="Y30" s="140"/>
+      <c r="Z30" s="140"/>
+      <c r="AA30" s="140"/>
+      <c r="AB30" s="140"/>
+      <c r="AC30" s="140"/>
+      <c r="AD30" s="140"/>
+      <c r="AE30" s="141"/>
+      <c r="AF30" s="136"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="138"/>
     </row>
     <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="103"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="104"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="101"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="138"/>
+      <c r="Q31" s="139"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="140"/>
+      <c r="U31" s="140"/>
+      <c r="V31" s="140"/>
+      <c r="W31" s="140"/>
+      <c r="X31" s="140"/>
+      <c r="Y31" s="140"/>
+      <c r="Z31" s="140"/>
+      <c r="AA31" s="140"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="141"/>
+      <c r="AF31" s="136"/>
+      <c r="AG31" s="137"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="138"/>
     </row>
     <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="104"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="100"/>
-      <c r="AH32" s="100"/>
-      <c r="AI32" s="101"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="140"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="140"/>
+      <c r="V32" s="140"/>
+      <c r="W32" s="140"/>
+      <c r="X32" s="140"/>
+      <c r="Y32" s="140"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="140"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="141"/>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="137"/>
+      <c r="AH32" s="137"/>
+      <c r="AI32" s="138"/>
     </row>
     <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="104"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="101"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="139"/>
+      <c r="R33" s="140"/>
+      <c r="S33" s="140"/>
+      <c r="T33" s="140"/>
+      <c r="U33" s="140"/>
+      <c r="V33" s="140"/>
+      <c r="W33" s="140"/>
+      <c r="X33" s="140"/>
+      <c r="Y33" s="140"/>
+      <c r="Z33" s="140"/>
+      <c r="AA33" s="140"/>
+      <c r="AB33" s="140"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="140"/>
+      <c r="AE33" s="141"/>
+      <c r="AF33" s="136"/>
+      <c r="AG33" s="137"/>
+      <c r="AH33" s="137"/>
+      <c r="AI33" s="138"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -7768,162 +7804,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -8081,163 +7961,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="str">
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>共通コンポーネント設計</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="157" t="s">
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="127" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="159">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="161"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="157" t="s">
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="127" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="159" t="str">
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="161"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="127" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="159" t="str">
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="161"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -9700,14 +9580,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9717,6 +9589,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -9744,161 +9624,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="193" t="s">
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>共通コンポーネント設計</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="127" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="159">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="161"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="8"/>
     </row>
     <row r="2" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="127" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="159" t="str">
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="161"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
     <row r="3" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="200"/>
-      <c r="Q3" s="200"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="127" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="159" t="str">
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="161"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
     </row>
@@ -9923,651 +9803,651 @@
     <row r="22" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="185" t="s">
+      <c r="B24" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="179" t="s">
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="180"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="185" t="s">
+      <c r="G24" s="199"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="186"/>
-      <c r="K24" s="186"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="179" t="s">
+      <c r="J24" s="202"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="203"/>
+      <c r="M24" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="180"/>
-      <c r="R24" s="180"/>
-      <c r="S24" s="180"/>
-      <c r="T24" s="180"/>
-      <c r="U24" s="181"/>
-      <c r="V24" s="185" t="s">
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="W24" s="186"/>
-      <c r="X24" s="186"/>
-      <c r="Y24" s="187"/>
-      <c r="Z24" s="179" t="s">
+      <c r="W24" s="202"/>
+      <c r="X24" s="202"/>
+      <c r="Y24" s="203"/>
+      <c r="Z24" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="AA24" s="180"/>
-      <c r="AB24" s="180"/>
-      <c r="AC24" s="180"/>
-      <c r="AD24" s="180"/>
-      <c r="AE24" s="180"/>
-      <c r="AF24" s="180"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="181"/>
+      <c r="AA24" s="199"/>
+      <c r="AB24" s="199"/>
+      <c r="AC24" s="199"/>
+      <c r="AD24" s="199"/>
+      <c r="AE24" s="199"/>
+      <c r="AF24" s="199"/>
+      <c r="AG24" s="199"/>
+      <c r="AH24" s="200"/>
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
       <c r="AL24" s="17"/>
     </row>
     <row r="25" spans="2:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="186"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="186"/>
-      <c r="AB25" s="186"/>
-      <c r="AC25" s="186"/>
-      <c r="AD25" s="186"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="186"/>
-      <c r="AG25" s="186"/>
-      <c r="AH25" s="187"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="202"/>
+      <c r="M25" s="202"/>
+      <c r="N25" s="202"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="202"/>
+      <c r="S25" s="202"/>
+      <c r="T25" s="202"/>
+      <c r="U25" s="202"/>
+      <c r="V25" s="202"/>
+      <c r="W25" s="202"/>
+      <c r="X25" s="202"/>
+      <c r="Y25" s="202"/>
+      <c r="Z25" s="202"/>
+      <c r="AA25" s="202"/>
+      <c r="AB25" s="202"/>
+      <c r="AC25" s="202"/>
+      <c r="AD25" s="202"/>
+      <c r="AE25" s="202"/>
+      <c r="AF25" s="202"/>
+      <c r="AG25" s="202"/>
+      <c r="AH25" s="203"/>
       <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
     </row>
     <row r="26" spans="2:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="174"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="174"/>
-      <c r="AH26" s="175"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="193"/>
+      <c r="M26" s="193"/>
+      <c r="N26" s="193"/>
+      <c r="O26" s="193"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="193"/>
+      <c r="S26" s="193"/>
+      <c r="T26" s="193"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="193"/>
+      <c r="Y26" s="193"/>
+      <c r="Z26" s="193"/>
+      <c r="AA26" s="193"/>
+      <c r="AB26" s="193"/>
+      <c r="AC26" s="193"/>
+      <c r="AD26" s="193"/>
+      <c r="AE26" s="193"/>
+      <c r="AF26" s="193"/>
+      <c r="AG26" s="193"/>
+      <c r="AH26" s="194"/>
     </row>
     <row r="27" spans="2:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="170"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="171"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="171"/>
-      <c r="S27" s="171"/>
-      <c r="T27" s="171"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="171"/>
-      <c r="W27" s="171"/>
-      <c r="X27" s="171"/>
-      <c r="Y27" s="171"/>
-      <c r="Z27" s="171"/>
-      <c r="AA27" s="171"/>
-      <c r="AB27" s="171"/>
-      <c r="AC27" s="171"/>
-      <c r="AD27" s="171"/>
-      <c r="AE27" s="171"/>
-      <c r="AF27" s="171"/>
-      <c r="AG27" s="171"/>
-      <c r="AH27" s="172"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
+      <c r="P27" s="196"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="196"/>
+      <c r="S27" s="196"/>
+      <c r="T27" s="196"/>
+      <c r="U27" s="196"/>
+      <c r="V27" s="196"/>
+      <c r="W27" s="196"/>
+      <c r="X27" s="196"/>
+      <c r="Y27" s="196"/>
+      <c r="Z27" s="196"/>
+      <c r="AA27" s="196"/>
+      <c r="AB27" s="196"/>
+      <c r="AC27" s="196"/>
+      <c r="AD27" s="196"/>
+      <c r="AE27" s="196"/>
+      <c r="AF27" s="196"/>
+      <c r="AG27" s="196"/>
+      <c r="AH27" s="197"/>
     </row>
     <row r="28" spans="2:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="170"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="171"/>
-      <c r="U28" s="171"/>
-      <c r="V28" s="171"/>
-      <c r="W28" s="171"/>
-      <c r="X28" s="171"/>
-      <c r="Y28" s="171"/>
-      <c r="Z28" s="171"/>
-      <c r="AA28" s="171"/>
-      <c r="AB28" s="171"/>
-      <c r="AC28" s="171"/>
-      <c r="AD28" s="171"/>
-      <c r="AE28" s="171"/>
-      <c r="AF28" s="171"/>
-      <c r="AG28" s="171"/>
-      <c r="AH28" s="172"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="196"/>
+      <c r="O28" s="196"/>
+      <c r="P28" s="196"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="196"/>
+      <c r="S28" s="196"/>
+      <c r="T28" s="196"/>
+      <c r="U28" s="196"/>
+      <c r="V28" s="196"/>
+      <c r="W28" s="196"/>
+      <c r="X28" s="196"/>
+      <c r="Y28" s="196"/>
+      <c r="Z28" s="196"/>
+      <c r="AA28" s="196"/>
+      <c r="AB28" s="196"/>
+      <c r="AC28" s="196"/>
+      <c r="AD28" s="196"/>
+      <c r="AE28" s="196"/>
+      <c r="AF28" s="196"/>
+      <c r="AG28" s="196"/>
+      <c r="AH28" s="197"/>
     </row>
     <row r="29" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="170"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
-      <c r="T29" s="171"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="171"/>
-      <c r="W29" s="171"/>
-      <c r="X29" s="171"/>
-      <c r="Y29" s="171"/>
-      <c r="Z29" s="171"/>
-      <c r="AA29" s="171"/>
-      <c r="AB29" s="171"/>
-      <c r="AC29" s="171"/>
-      <c r="AD29" s="171"/>
-      <c r="AE29" s="171"/>
-      <c r="AF29" s="171"/>
-      <c r="AG29" s="171"/>
-      <c r="AH29" s="172"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="196"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="196"/>
+      <c r="S29" s="196"/>
+      <c r="T29" s="196"/>
+      <c r="U29" s="196"/>
+      <c r="V29" s="196"/>
+      <c r="W29" s="196"/>
+      <c r="X29" s="196"/>
+      <c r="Y29" s="196"/>
+      <c r="Z29" s="196"/>
+      <c r="AA29" s="196"/>
+      <c r="AB29" s="196"/>
+      <c r="AC29" s="196"/>
+      <c r="AD29" s="196"/>
+      <c r="AE29" s="196"/>
+      <c r="AF29" s="196"/>
+      <c r="AG29" s="196"/>
+      <c r="AH29" s="197"/>
     </row>
     <row r="30" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="171"/>
-      <c r="AC30" s="171"/>
-      <c r="AD30" s="171"/>
-      <c r="AE30" s="171"/>
-      <c r="AF30" s="171"/>
-      <c r="AG30" s="171"/>
-      <c r="AH30" s="172"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="196"/>
+      <c r="M30" s="196"/>
+      <c r="N30" s="196"/>
+      <c r="O30" s="196"/>
+      <c r="P30" s="196"/>
+      <c r="Q30" s="196"/>
+      <c r="R30" s="196"/>
+      <c r="S30" s="196"/>
+      <c r="T30" s="196"/>
+      <c r="U30" s="196"/>
+      <c r="V30" s="196"/>
+      <c r="W30" s="196"/>
+      <c r="X30" s="196"/>
+      <c r="Y30" s="196"/>
+      <c r="Z30" s="196"/>
+      <c r="AA30" s="196"/>
+      <c r="AB30" s="196"/>
+      <c r="AC30" s="196"/>
+      <c r="AD30" s="196"/>
+      <c r="AE30" s="196"/>
+      <c r="AF30" s="196"/>
+      <c r="AG30" s="196"/>
+      <c r="AH30" s="197"/>
     </row>
     <row r="31" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="170"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="171"/>
-      <c r="W31" s="171"/>
-      <c r="X31" s="171"/>
-      <c r="Y31" s="171"/>
-      <c r="Z31" s="171"/>
-      <c r="AA31" s="171"/>
-      <c r="AB31" s="171"/>
-      <c r="AC31" s="171"/>
-      <c r="AD31" s="171"/>
-      <c r="AE31" s="171"/>
-      <c r="AF31" s="171"/>
-      <c r="AG31" s="171"/>
-      <c r="AH31" s="172"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="196"/>
+      <c r="N31" s="196"/>
+      <c r="O31" s="196"/>
+      <c r="P31" s="196"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="196"/>
+      <c r="S31" s="196"/>
+      <c r="T31" s="196"/>
+      <c r="U31" s="196"/>
+      <c r="V31" s="196"/>
+      <c r="W31" s="196"/>
+      <c r="X31" s="196"/>
+      <c r="Y31" s="196"/>
+      <c r="Z31" s="196"/>
+      <c r="AA31" s="196"/>
+      <c r="AB31" s="196"/>
+      <c r="AC31" s="196"/>
+      <c r="AD31" s="196"/>
+      <c r="AE31" s="196"/>
+      <c r="AF31" s="196"/>
+      <c r="AG31" s="196"/>
+      <c r="AH31" s="197"/>
     </row>
     <row r="32" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="176"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="177"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="177"/>
-      <c r="V32" s="177"/>
-      <c r="W32" s="177"/>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="177"/>
-      <c r="Z32" s="177"/>
-      <c r="AA32" s="177"/>
-      <c r="AB32" s="177"/>
-      <c r="AC32" s="177"/>
-      <c r="AD32" s="177"/>
-      <c r="AE32" s="177"/>
-      <c r="AF32" s="177"/>
-      <c r="AG32" s="177"/>
-      <c r="AH32" s="178"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="206"/>
+      <c r="L32" s="206"/>
+      <c r="M32" s="206"/>
+      <c r="N32" s="206"/>
+      <c r="O32" s="206"/>
+      <c r="P32" s="206"/>
+      <c r="Q32" s="206"/>
+      <c r="R32" s="206"/>
+      <c r="S32" s="206"/>
+      <c r="T32" s="206"/>
+      <c r="U32" s="206"/>
+      <c r="V32" s="206"/>
+      <c r="W32" s="206"/>
+      <c r="X32" s="206"/>
+      <c r="Y32" s="206"/>
+      <c r="Z32" s="206"/>
+      <c r="AA32" s="206"/>
+      <c r="AB32" s="206"/>
+      <c r="AC32" s="206"/>
+      <c r="AD32" s="206"/>
+      <c r="AE32" s="206"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="206"/>
+      <c r="AH32" s="207"/>
     </row>
     <row r="33" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="99" t="s">
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="182" t="s">
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="99" t="s">
+      <c r="R33" s="163"/>
+      <c r="S33" s="163"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="100"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="100"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="101"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="137"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="137"/>
+      <c r="AH33" s="138"/>
     </row>
     <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183"/>
-      <c r="O34" s="183"/>
-      <c r="P34" s="183"/>
-      <c r="Q34" s="183"/>
-      <c r="R34" s="183"/>
-      <c r="S34" s="183"/>
-      <c r="T34" s="183"/>
-      <c r="U34" s="183"/>
-      <c r="V34" s="183"/>
-      <c r="W34" s="183"/>
-      <c r="X34" s="183"/>
-      <c r="Y34" s="183"/>
-      <c r="Z34" s="183"/>
-      <c r="AA34" s="183"/>
-      <c r="AB34" s="183"/>
-      <c r="AC34" s="183"/>
-      <c r="AD34" s="183"/>
-      <c r="AE34" s="183"/>
-      <c r="AF34" s="183"/>
-      <c r="AG34" s="183"/>
-      <c r="AH34" s="184"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="163"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="163"/>
+      <c r="R34" s="163"/>
+      <c r="S34" s="163"/>
+      <c r="T34" s="163"/>
+      <c r="U34" s="163"/>
+      <c r="V34" s="163"/>
+      <c r="W34" s="163"/>
+      <c r="X34" s="163"/>
+      <c r="Y34" s="163"/>
+      <c r="Z34" s="163"/>
+      <c r="AA34" s="163"/>
+      <c r="AB34" s="163"/>
+      <c r="AC34" s="163"/>
+      <c r="AD34" s="163"/>
+      <c r="AE34" s="163"/>
+      <c r="AF34" s="163"/>
+      <c r="AG34" s="163"/>
+      <c r="AH34" s="164"/>
     </row>
     <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="182" t="s">
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="184"/>
-      <c r="L35" s="182" t="s">
+      <c r="K35" s="164"/>
+      <c r="L35" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="183"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="182" t="s">
+      <c r="M35" s="163"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="182" t="s">
+      <c r="P35" s="164"/>
+      <c r="Q35" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="R35" s="183"/>
-      <c r="S35" s="183"/>
-      <c r="T35" s="183"/>
-      <c r="U35" s="183"/>
-      <c r="V35" s="183"/>
-      <c r="W35" s="183"/>
-      <c r="X35" s="183"/>
-      <c r="Y35" s="183"/>
-      <c r="Z35" s="183"/>
-      <c r="AA35" s="183"/>
-      <c r="AB35" s="183"/>
-      <c r="AC35" s="183"/>
-      <c r="AD35" s="183"/>
-      <c r="AE35" s="183"/>
-      <c r="AF35" s="183"/>
-      <c r="AG35" s="183"/>
-      <c r="AH35" s="184"/>
+      <c r="R35" s="163"/>
+      <c r="S35" s="163"/>
+      <c r="T35" s="163"/>
+      <c r="U35" s="163"/>
+      <c r="V35" s="163"/>
+      <c r="W35" s="163"/>
+      <c r="X35" s="163"/>
+      <c r="Y35" s="163"/>
+      <c r="Z35" s="163"/>
+      <c r="AA35" s="163"/>
+      <c r="AB35" s="163"/>
+      <c r="AC35" s="163"/>
+      <c r="AD35" s="163"/>
+      <c r="AE35" s="163"/>
+      <c r="AF35" s="163"/>
+      <c r="AG35" s="163"/>
+      <c r="AH35" s="164"/>
     </row>
     <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="99" t="s">
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="101"/>
-      <c r="L36" s="99" t="s">
+      <c r="K36" s="138"/>
+      <c r="L36" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="100"/>
-      <c r="N36" s="101"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="138"/>
       <c r="O36" s="189" t="s">
         <v>74</v>
       </c>
       <c r="P36" s="190"/>
-      <c r="Q36" s="99" t="s">
+      <c r="Q36" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="R36" s="100"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="100"/>
-      <c r="V36" s="100"/>
-      <c r="W36" s="100"/>
-      <c r="X36" s="100"/>
-      <c r="Y36" s="100"/>
-      <c r="Z36" s="100"/>
-      <c r="AA36" s="100"/>
-      <c r="AB36" s="100"/>
-      <c r="AC36" s="100"/>
-      <c r="AD36" s="100"/>
-      <c r="AE36" s="100"/>
-      <c r="AF36" s="100"/>
-      <c r="AG36" s="100"/>
-      <c r="AH36" s="101"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="137"/>
+      <c r="AA36" s="137"/>
+      <c r="AB36" s="137"/>
+      <c r="AC36" s="137"/>
+      <c r="AD36" s="137"/>
+      <c r="AE36" s="137"/>
+      <c r="AF36" s="137"/>
+      <c r="AG36" s="137"/>
+      <c r="AH36" s="138"/>
     </row>
     <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="99" t="s">
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="101"/>
-      <c r="L37" s="99" t="s">
+      <c r="K37" s="138"/>
+      <c r="L37" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="100"/>
-      <c r="N37" s="101"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="138"/>
       <c r="O37" s="189" t="s">
         <v>74</v>
       </c>
       <c r="P37" s="190"/>
-      <c r="Q37" s="99" t="s">
+      <c r="Q37" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
-      <c r="X37" s="100"/>
-      <c r="Y37" s="100"/>
-      <c r="Z37" s="100"/>
-      <c r="AA37" s="100"/>
-      <c r="AB37" s="100"/>
-      <c r="AC37" s="100"/>
-      <c r="AD37" s="100"/>
-      <c r="AE37" s="100"/>
-      <c r="AF37" s="100"/>
-      <c r="AG37" s="100"/>
-      <c r="AH37" s="101"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+      <c r="AA37" s="137"/>
+      <c r="AB37" s="137"/>
+      <c r="AC37" s="137"/>
+      <c r="AD37" s="137"/>
+      <c r="AE37" s="137"/>
+      <c r="AF37" s="137"/>
+      <c r="AG37" s="137"/>
+      <c r="AH37" s="138"/>
     </row>
     <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="99" t="s">
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="K38" s="101"/>
-      <c r="L38" s="99" t="s">
+      <c r="K38" s="138"/>
+      <c r="L38" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="M38" s="100"/>
-      <c r="N38" s="101"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="138"/>
       <c r="O38" s="189" t="s">
         <v>99</v>
       </c>
       <c r="P38" s="190"/>
-      <c r="Q38" s="99" t="s">
+      <c r="Q38" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="100"/>
-      <c r="V38" s="100"/>
-      <c r="W38" s="100"/>
-      <c r="X38" s="100"/>
-      <c r="Y38" s="100"/>
-      <c r="Z38" s="100"/>
-      <c r="AA38" s="100"/>
-      <c r="AB38" s="100"/>
-      <c r="AC38" s="100"/>
-      <c r="AD38" s="100"/>
-      <c r="AE38" s="100"/>
-      <c r="AF38" s="100"/>
-      <c r="AG38" s="100"/>
-      <c r="AH38" s="101"/>
+      <c r="R38" s="137"/>
+      <c r="S38" s="137"/>
+      <c r="T38" s="137"/>
+      <c r="U38" s="137"/>
+      <c r="V38" s="137"/>
+      <c r="W38" s="137"/>
+      <c r="X38" s="137"/>
+      <c r="Y38" s="137"/>
+      <c r="Z38" s="137"/>
+      <c r="AA38" s="137"/>
+      <c r="AB38" s="137"/>
+      <c r="AC38" s="137"/>
+      <c r="AD38" s="137"/>
+      <c r="AE38" s="137"/>
+      <c r="AF38" s="137"/>
+      <c r="AG38" s="137"/>
+      <c r="AH38" s="138"/>
     </row>
     <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="182" t="s">
+      <c r="B39" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="183"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="183"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="183"/>
-      <c r="S39" s="183"/>
-      <c r="T39" s="183"/>
-      <c r="U39" s="183"/>
-      <c r="V39" s="183"/>
-      <c r="W39" s="183"/>
-      <c r="X39" s="183"/>
-      <c r="Y39" s="183"/>
-      <c r="Z39" s="183"/>
-      <c r="AA39" s="183"/>
-      <c r="AB39" s="183"/>
-      <c r="AC39" s="183"/>
-      <c r="AD39" s="183"/>
-      <c r="AE39" s="183"/>
-      <c r="AF39" s="183"/>
-      <c r="AG39" s="183"/>
-      <c r="AH39" s="184"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="163"/>
+      <c r="P39" s="163"/>
+      <c r="Q39" s="163"/>
+      <c r="R39" s="163"/>
+      <c r="S39" s="163"/>
+      <c r="T39" s="163"/>
+      <c r="U39" s="163"/>
+      <c r="V39" s="163"/>
+      <c r="W39" s="163"/>
+      <c r="X39" s="163"/>
+      <c r="Y39" s="163"/>
+      <c r="Z39" s="163"/>
+      <c r="AA39" s="163"/>
+      <c r="AB39" s="163"/>
+      <c r="AC39" s="163"/>
+      <c r="AD39" s="163"/>
+      <c r="AE39" s="163"/>
+      <c r="AF39" s="163"/>
+      <c r="AG39" s="163"/>
+      <c r="AH39" s="164"/>
     </row>
     <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="182" t="s">
+      <c r="B40" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="184"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="164"/>
       <c r="J40" s="78" t="s">
         <v>54</v>
       </c>
@@ -10580,41 +10460,41 @@
       <c r="M40" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="182" t="s">
+      <c r="N40" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="O40" s="183"/>
-      <c r="P40" s="183"/>
-      <c r="Q40" s="183"/>
-      <c r="R40" s="183"/>
-      <c r="S40" s="183"/>
-      <c r="T40" s="183"/>
-      <c r="U40" s="183"/>
-      <c r="V40" s="183"/>
-      <c r="W40" s="183"/>
-      <c r="X40" s="183"/>
-      <c r="Y40" s="183"/>
-      <c r="Z40" s="183"/>
-      <c r="AA40" s="183"/>
-      <c r="AB40" s="183"/>
-      <c r="AC40" s="183"/>
-      <c r="AD40" s="183"/>
-      <c r="AE40" s="183"/>
-      <c r="AF40" s="183"/>
-      <c r="AG40" s="183"/>
-      <c r="AH40" s="184"/>
+      <c r="O40" s="163"/>
+      <c r="P40" s="163"/>
+      <c r="Q40" s="163"/>
+      <c r="R40" s="163"/>
+      <c r="S40" s="163"/>
+      <c r="T40" s="163"/>
+      <c r="U40" s="163"/>
+      <c r="V40" s="163"/>
+      <c r="W40" s="163"/>
+      <c r="X40" s="163"/>
+      <c r="Y40" s="163"/>
+      <c r="Z40" s="163"/>
+      <c r="AA40" s="163"/>
+      <c r="AB40" s="163"/>
+      <c r="AC40" s="163"/>
+      <c r="AD40" s="163"/>
+      <c r="AE40" s="163"/>
+      <c r="AF40" s="163"/>
+      <c r="AG40" s="163"/>
+      <c r="AH40" s="164"/>
     </row>
     <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="192" t="s">
+      <c r="B41" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
       <c r="J41" s="79" t="s">
         <v>99</v>
       </c>
@@ -10627,39 +10507,39 @@
       <c r="M41" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="N41" s="99"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="100"/>
-      <c r="U41" s="100"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="100"/>
-      <c r="X41" s="100"/>
-      <c r="Y41" s="100"/>
-      <c r="Z41" s="100"/>
-      <c r="AA41" s="100"/>
-      <c r="AB41" s="100"/>
-      <c r="AC41" s="100"/>
-      <c r="AD41" s="100"/>
-      <c r="AE41" s="100"/>
-      <c r="AF41" s="100"/>
-      <c r="AG41" s="100"/>
-      <c r="AH41" s="101"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="137"/>
+      <c r="P41" s="137"/>
+      <c r="Q41" s="137"/>
+      <c r="R41" s="137"/>
+      <c r="S41" s="137"/>
+      <c r="T41" s="137"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="137"/>
+      <c r="X41" s="137"/>
+      <c r="Y41" s="137"/>
+      <c r="Z41" s="137"/>
+      <c r="AA41" s="137"/>
+      <c r="AB41" s="137"/>
+      <c r="AC41" s="137"/>
+      <c r="AD41" s="137"/>
+      <c r="AE41" s="137"/>
+      <c r="AF41" s="137"/>
+      <c r="AG41" s="137"/>
+      <c r="AH41" s="138"/>
     </row>
     <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="192" t="s">
+      <c r="B42" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
       <c r="J42" s="90" t="s">
         <v>99</v>
       </c>
@@ -10672,158 +10552,158 @@
       <c r="M42" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="N42" s="99"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100"/>
-      <c r="U42" s="100"/>
-      <c r="V42" s="100"/>
-      <c r="W42" s="100"/>
-      <c r="X42" s="100"/>
-      <c r="Y42" s="100"/>
-      <c r="Z42" s="100"/>
-      <c r="AA42" s="100"/>
-      <c r="AB42" s="100"/>
-      <c r="AC42" s="100"/>
-      <c r="AD42" s="100"/>
-      <c r="AE42" s="100"/>
-      <c r="AF42" s="100"/>
-      <c r="AG42" s="100"/>
-      <c r="AH42" s="101"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="137"/>
+      <c r="Q42" s="137"/>
+      <c r="R42" s="137"/>
+      <c r="S42" s="137"/>
+      <c r="T42" s="137"/>
+      <c r="U42" s="137"/>
+      <c r="V42" s="137"/>
+      <c r="W42" s="137"/>
+      <c r="X42" s="137"/>
+      <c r="Y42" s="137"/>
+      <c r="Z42" s="137"/>
+      <c r="AA42" s="137"/>
+      <c r="AB42" s="137"/>
+      <c r="AC42" s="137"/>
+      <c r="AD42" s="137"/>
+      <c r="AE42" s="137"/>
+      <c r="AF42" s="137"/>
+      <c r="AG42" s="137"/>
+      <c r="AH42" s="138"/>
     </row>
     <row r="43" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="182" t="s">
+      <c r="B43" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="183"/>
-      <c r="D43" s="183"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="183"/>
-      <c r="J43" s="183"/>
-      <c r="K43" s="183"/>
-      <c r="L43" s="183"/>
-      <c r="M43" s="183"/>
-      <c r="N43" s="183"/>
-      <c r="O43" s="183"/>
-      <c r="P43" s="183"/>
-      <c r="Q43" s="183"/>
-      <c r="R43" s="183"/>
-      <c r="S43" s="183"/>
-      <c r="T43" s="183"/>
-      <c r="U43" s="183"/>
-      <c r="V43" s="183"/>
-      <c r="W43" s="183"/>
-      <c r="X43" s="183"/>
-      <c r="Y43" s="183"/>
-      <c r="Z43" s="183"/>
-      <c r="AA43" s="183"/>
-      <c r="AB43" s="183"/>
-      <c r="AC43" s="183"/>
-      <c r="AD43" s="183"/>
-      <c r="AE43" s="183"/>
-      <c r="AF43" s="183"/>
-      <c r="AG43" s="183"/>
-      <c r="AH43" s="184"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="163"/>
+      <c r="N43" s="163"/>
+      <c r="O43" s="163"/>
+      <c r="P43" s="163"/>
+      <c r="Q43" s="163"/>
+      <c r="R43" s="163"/>
+      <c r="S43" s="163"/>
+      <c r="T43" s="163"/>
+      <c r="U43" s="163"/>
+      <c r="V43" s="163"/>
+      <c r="W43" s="163"/>
+      <c r="X43" s="163"/>
+      <c r="Y43" s="163"/>
+      <c r="Z43" s="163"/>
+      <c r="AA43" s="163"/>
+      <c r="AB43" s="163"/>
+      <c r="AC43" s="163"/>
+      <c r="AD43" s="163"/>
+      <c r="AE43" s="163"/>
+      <c r="AF43" s="163"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="164"/>
     </row>
     <row r="44" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="191" t="s">
+      <c r="B44" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="184"/>
-      <c r="D44" s="182" t="s">
+      <c r="C44" s="164"/>
+      <c r="D44" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="184"/>
-      <c r="K44" s="182" t="s">
+      <c r="E44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="L44" s="183"/>
-      <c r="M44" s="183"/>
-      <c r="N44" s="183"/>
-      <c r="O44" s="184"/>
-      <c r="P44" s="182" t="s">
+      <c r="L44" s="163"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="Q44" s="183"/>
-      <c r="R44" s="184"/>
-      <c r="S44" s="182" t="s">
+      <c r="Q44" s="163"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="T44" s="183"/>
-      <c r="U44" s="183"/>
-      <c r="V44" s="183"/>
-      <c r="W44" s="184"/>
-      <c r="X44" s="182" t="s">
+      <c r="T44" s="163"/>
+      <c r="U44" s="163"/>
+      <c r="V44" s="163"/>
+      <c r="W44" s="164"/>
+      <c r="X44" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="Y44" s="183"/>
-      <c r="Z44" s="183"/>
-      <c r="AA44" s="183"/>
-      <c r="AB44" s="183"/>
-      <c r="AC44" s="183"/>
-      <c r="AD44" s="183"/>
-      <c r="AE44" s="183"/>
-      <c r="AF44" s="183"/>
-      <c r="AG44" s="183"/>
-      <c r="AH44" s="184"/>
+      <c r="Y44" s="163"/>
+      <c r="Z44" s="163"/>
+      <c r="AA44" s="163"/>
+      <c r="AB44" s="163"/>
+      <c r="AC44" s="163"/>
+      <c r="AD44" s="163"/>
+      <c r="AE44" s="163"/>
+      <c r="AF44" s="163"/>
+      <c r="AG44" s="163"/>
+      <c r="AH44" s="164"/>
     </row>
     <row r="45" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="212">
+      <c r="B45" s="167">
         <v>1</v>
       </c>
-      <c r="C45" s="213"/>
-      <c r="D45" s="102" t="s">
+      <c r="C45" s="168"/>
+      <c r="D45" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="102" t="s">
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="102" t="s">
+      <c r="L45" s="140"/>
+      <c r="M45" s="140"/>
+      <c r="N45" s="140"/>
+      <c r="O45" s="141"/>
+      <c r="P45" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="102" t="s">
+      <c r="Q45" s="140"/>
+      <c r="R45" s="141"/>
+      <c r="S45" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="102" t="s">
+      <c r="T45" s="140"/>
+      <c r="U45" s="140"/>
+      <c r="V45" s="140"/>
+      <c r="W45" s="141"/>
+      <c r="X45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="103"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="103"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="103"/>
-      <c r="AE45" s="103"/>
-      <c r="AF45" s="103"/>
-      <c r="AG45" s="103"/>
-      <c r="AH45" s="104"/>
+      <c r="Y45" s="140"/>
+      <c r="Z45" s="140"/>
+      <c r="AA45" s="140"/>
+      <c r="AB45" s="140"/>
+      <c r="AC45" s="140"/>
+      <c r="AD45" s="140"/>
+      <c r="AE45" s="140"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="140"/>
+      <c r="AH45" s="141"/>
       <c r="AI45" s="20"/>
     </row>
     <row r="46" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11086,47 +10966,47 @@
       <c r="AJ52" s="19"/>
     </row>
     <row r="53" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="214" t="s">
+      <c r="B53" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="215"/>
-      <c r="D53" s="215"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="215"/>
-      <c r="G53" s="215"/>
-      <c r="H53" s="215"/>
-      <c r="I53" s="215"/>
-      <c r="J53" s="215"/>
-      <c r="K53" s="215"/>
-      <c r="L53" s="215"/>
-      <c r="M53" s="215"/>
-      <c r="N53" s="215"/>
-      <c r="O53" s="215"/>
-      <c r="P53" s="215"/>
-      <c r="Q53" s="215"/>
-      <c r="R53" s="215"/>
-      <c r="S53" s="215"/>
-      <c r="T53" s="215"/>
-      <c r="U53" s="215"/>
-      <c r="V53" s="215"/>
-      <c r="W53" s="215"/>
-      <c r="X53" s="211"/>
-      <c r="Y53" s="214" t="s">
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="170"/>
+      <c r="P53" s="170"/>
+      <c r="Q53" s="170"/>
+      <c r="R53" s="170"/>
+      <c r="S53" s="170"/>
+      <c r="T53" s="170"/>
+      <c r="U53" s="170"/>
+      <c r="V53" s="170"/>
+      <c r="W53" s="170"/>
+      <c r="X53" s="166"/>
+      <c r="Y53" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="Z53" s="215"/>
-      <c r="AA53" s="211"/>
-      <c r="AB53" s="214" t="s">
+      <c r="Z53" s="170"/>
+      <c r="AA53" s="166"/>
+      <c r="AB53" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="AC53" s="215"/>
-      <c r="AD53" s="215"/>
-      <c r="AE53" s="215"/>
-      <c r="AF53" s="211"/>
-      <c r="AG53" s="191" t="s">
+      <c r="AC53" s="170"/>
+      <c r="AD53" s="170"/>
+      <c r="AE53" s="170"/>
+      <c r="AF53" s="166"/>
+      <c r="AG53" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="AH53" s="211"/>
+      <c r="AH53" s="166"/>
       <c r="AI53" s="21"/>
       <c r="AJ53" s="21"/>
       <c r="AK53" s="21"/>
@@ -11155,16 +11035,16 @@
       <c r="V54" s="81"/>
       <c r="W54" s="81"/>
       <c r="X54" s="81"/>
-      <c r="Y54" s="173"/>
-      <c r="Z54" s="174"/>
-      <c r="AA54" s="175"/>
-      <c r="AB54" s="173"/>
-      <c r="AC54" s="174"/>
-      <c r="AD54" s="174"/>
-      <c r="AE54" s="174"/>
-      <c r="AF54" s="175"/>
-      <c r="AG54" s="166"/>
-      <c r="AH54" s="167"/>
+      <c r="Y54" s="192"/>
+      <c r="Z54" s="193"/>
+      <c r="AA54" s="194"/>
+      <c r="AB54" s="192"/>
+      <c r="AC54" s="193"/>
+      <c r="AD54" s="193"/>
+      <c r="AE54" s="193"/>
+      <c r="AF54" s="194"/>
+      <c r="AG54" s="208"/>
+      <c r="AH54" s="209"/>
     </row>
     <row r="55" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="91" t="s">
@@ -11192,16 +11072,16 @@
       <c r="V55" s="83"/>
       <c r="W55" s="83"/>
       <c r="X55" s="83"/>
-      <c r="Y55" s="170"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="172"/>
-      <c r="AB55" s="170"/>
-      <c r="AC55" s="171"/>
-      <c r="AD55" s="171"/>
-      <c r="AE55" s="171"/>
-      <c r="AF55" s="172"/>
-      <c r="AG55" s="164"/>
-      <c r="AH55" s="165"/>
+      <c r="Y55" s="195"/>
+      <c r="Z55" s="196"/>
+      <c r="AA55" s="197"/>
+      <c r="AB55" s="195"/>
+      <c r="AC55" s="196"/>
+      <c r="AD55" s="196"/>
+      <c r="AE55" s="196"/>
+      <c r="AF55" s="197"/>
+      <c r="AG55" s="210"/>
+      <c r="AH55" s="211"/>
     </row>
     <row r="56" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="82"/>
@@ -11229,18 +11109,18 @@
       <c r="V56" s="83"/>
       <c r="W56" s="83"/>
       <c r="X56" s="83"/>
-      <c r="Y56" s="170"/>
-      <c r="Z56" s="171"/>
-      <c r="AA56" s="172"/>
-      <c r="AB56" s="170"/>
-      <c r="AC56" s="171"/>
-      <c r="AD56" s="171"/>
-      <c r="AE56" s="171"/>
-      <c r="AF56" s="172"/>
-      <c r="AG56" s="168" t="s">
+      <c r="Y56" s="195"/>
+      <c r="Z56" s="196"/>
+      <c r="AA56" s="197"/>
+      <c r="AB56" s="195"/>
+      <c r="AC56" s="196"/>
+      <c r="AD56" s="196"/>
+      <c r="AE56" s="196"/>
+      <c r="AF56" s="197"/>
+      <c r="AG56" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="AH56" s="169"/>
+      <c r="AH56" s="213"/>
     </row>
     <row r="57" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="82"/>
@@ -11268,16 +11148,16 @@
       <c r="V57" s="83"/>
       <c r="W57" s="83"/>
       <c r="X57" s="83"/>
-      <c r="Y57" s="170"/>
-      <c r="Z57" s="171"/>
-      <c r="AA57" s="172"/>
-      <c r="AB57" s="170"/>
-      <c r="AC57" s="171"/>
-      <c r="AD57" s="171"/>
-      <c r="AE57" s="171"/>
-      <c r="AF57" s="172"/>
-      <c r="AG57" s="168"/>
-      <c r="AH57" s="169"/>
+      <c r="Y57" s="195"/>
+      <c r="Z57" s="196"/>
+      <c r="AA57" s="197"/>
+      <c r="AB57" s="195"/>
+      <c r="AC57" s="196"/>
+      <c r="AD57" s="196"/>
+      <c r="AE57" s="196"/>
+      <c r="AF57" s="197"/>
+      <c r="AG57" s="212"/>
+      <c r="AH57" s="213"/>
     </row>
     <row r="58" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="82"/>
@@ -11303,16 +11183,16 @@
       <c r="V58" s="83"/>
       <c r="W58" s="83"/>
       <c r="X58" s="83"/>
-      <c r="Y58" s="170"/>
-      <c r="Z58" s="171"/>
-      <c r="AA58" s="172"/>
-      <c r="AB58" s="170"/>
-      <c r="AC58" s="171"/>
-      <c r="AD58" s="171"/>
-      <c r="AE58" s="171"/>
-      <c r="AF58" s="172"/>
-      <c r="AG58" s="164"/>
-      <c r="AH58" s="165"/>
+      <c r="Y58" s="195"/>
+      <c r="Z58" s="196"/>
+      <c r="AA58" s="197"/>
+      <c r="AB58" s="195"/>
+      <c r="AC58" s="196"/>
+      <c r="AD58" s="196"/>
+      <c r="AE58" s="196"/>
+      <c r="AF58" s="197"/>
+      <c r="AG58" s="210"/>
+      <c r="AH58" s="211"/>
     </row>
     <row r="59" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="91" t="s">
@@ -11340,16 +11220,16 @@
       <c r="V59" s="83"/>
       <c r="W59" s="83"/>
       <c r="X59" s="83"/>
-      <c r="Y59" s="170"/>
-      <c r="Z59" s="171"/>
-      <c r="AA59" s="172"/>
-      <c r="AB59" s="170"/>
-      <c r="AC59" s="171"/>
-      <c r="AD59" s="171"/>
-      <c r="AE59" s="171"/>
-      <c r="AF59" s="172"/>
-      <c r="AG59" s="164"/>
-      <c r="AH59" s="165"/>
+      <c r="Y59" s="195"/>
+      <c r="Z59" s="196"/>
+      <c r="AA59" s="197"/>
+      <c r="AB59" s="195"/>
+      <c r="AC59" s="196"/>
+      <c r="AD59" s="196"/>
+      <c r="AE59" s="196"/>
+      <c r="AF59" s="197"/>
+      <c r="AG59" s="210"/>
+      <c r="AH59" s="211"/>
     </row>
     <row r="60" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="82"/>
@@ -11377,16 +11257,16 @@
       <c r="V60" s="83"/>
       <c r="W60" s="83"/>
       <c r="X60" s="83"/>
-      <c r="Y60" s="170"/>
-      <c r="Z60" s="171"/>
-      <c r="AA60" s="172"/>
-      <c r="AB60" s="170"/>
-      <c r="AC60" s="171"/>
-      <c r="AD60" s="171"/>
-      <c r="AE60" s="171"/>
-      <c r="AF60" s="172"/>
-      <c r="AG60" s="164"/>
-      <c r="AH60" s="165"/>
+      <c r="Y60" s="195"/>
+      <c r="Z60" s="196"/>
+      <c r="AA60" s="197"/>
+      <c r="AB60" s="195"/>
+      <c r="AC60" s="196"/>
+      <c r="AD60" s="196"/>
+      <c r="AE60" s="196"/>
+      <c r="AF60" s="197"/>
+      <c r="AG60" s="210"/>
+      <c r="AH60" s="211"/>
     </row>
     <row r="61" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="82"/>
@@ -11414,16 +11294,16 @@
       <c r="V61" s="83"/>
       <c r="W61" s="83"/>
       <c r="X61" s="83"/>
-      <c r="Y61" s="170"/>
-      <c r="Z61" s="171"/>
-      <c r="AA61" s="172"/>
-      <c r="AB61" s="170"/>
-      <c r="AC61" s="171"/>
-      <c r="AD61" s="171"/>
-      <c r="AE61" s="171"/>
-      <c r="AF61" s="172"/>
-      <c r="AG61" s="164"/>
-      <c r="AH61" s="165"/>
+      <c r="Y61" s="195"/>
+      <c r="Z61" s="196"/>
+      <c r="AA61" s="197"/>
+      <c r="AB61" s="195"/>
+      <c r="AC61" s="196"/>
+      <c r="AD61" s="196"/>
+      <c r="AE61" s="196"/>
+      <c r="AF61" s="197"/>
+      <c r="AG61" s="210"/>
+      <c r="AH61" s="211"/>
     </row>
     <row r="62" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="82"/>
@@ -11450,16 +11330,16 @@
       <c r="V62" s="83"/>
       <c r="W62" s="83"/>
       <c r="X62" s="83"/>
-      <c r="Y62" s="170"/>
-      <c r="Z62" s="171"/>
-      <c r="AA62" s="172"/>
-      <c r="AB62" s="170"/>
-      <c r="AC62" s="171"/>
-      <c r="AD62" s="171"/>
-      <c r="AE62" s="171"/>
-      <c r="AF62" s="172"/>
-      <c r="AG62" s="164"/>
-      <c r="AH62" s="165"/>
+      <c r="Y62" s="195"/>
+      <c r="Z62" s="196"/>
+      <c r="AA62" s="197"/>
+      <c r="AB62" s="195"/>
+      <c r="AC62" s="196"/>
+      <c r="AD62" s="196"/>
+      <c r="AE62" s="196"/>
+      <c r="AF62" s="197"/>
+      <c r="AG62" s="210"/>
+      <c r="AH62" s="211"/>
     </row>
     <row r="63" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="82"/>
@@ -11486,16 +11366,16 @@
       <c r="V63" s="83"/>
       <c r="W63" s="83"/>
       <c r="X63" s="83"/>
-      <c r="Y63" s="170"/>
-      <c r="Z63" s="171"/>
-      <c r="AA63" s="172"/>
-      <c r="AB63" s="170"/>
-      <c r="AC63" s="171"/>
-      <c r="AD63" s="171"/>
-      <c r="AE63" s="171"/>
-      <c r="AF63" s="172"/>
-      <c r="AG63" s="164"/>
-      <c r="AH63" s="165"/>
+      <c r="Y63" s="195"/>
+      <c r="Z63" s="196"/>
+      <c r="AA63" s="197"/>
+      <c r="AB63" s="195"/>
+      <c r="AC63" s="196"/>
+      <c r="AD63" s="196"/>
+      <c r="AE63" s="196"/>
+      <c r="AF63" s="197"/>
+      <c r="AG63" s="210"/>
+      <c r="AH63" s="211"/>
     </row>
     <row r="64" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="82"/>
@@ -11520,16 +11400,16 @@
       <c r="V64" s="83"/>
       <c r="W64" s="83"/>
       <c r="X64" s="83"/>
-      <c r="Y64" s="170"/>
-      <c r="Z64" s="171"/>
-      <c r="AA64" s="172"/>
-      <c r="AB64" s="170"/>
-      <c r="AC64" s="171"/>
-      <c r="AD64" s="171"/>
-      <c r="AE64" s="171"/>
-      <c r="AF64" s="172"/>
-      <c r="AG64" s="164"/>
-      <c r="AH64" s="165"/>
+      <c r="Y64" s="195"/>
+      <c r="Z64" s="196"/>
+      <c r="AA64" s="197"/>
+      <c r="AB64" s="195"/>
+      <c r="AC64" s="196"/>
+      <c r="AD64" s="196"/>
+      <c r="AE64" s="196"/>
+      <c r="AF64" s="197"/>
+      <c r="AG64" s="210"/>
+      <c r="AH64" s="211"/>
     </row>
     <row r="65" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="82"/>
@@ -11556,16 +11436,16 @@
       <c r="V65" s="83"/>
       <c r="W65" s="83"/>
       <c r="X65" s="83"/>
-      <c r="Y65" s="170"/>
-      <c r="Z65" s="171"/>
-      <c r="AA65" s="172"/>
-      <c r="AB65" s="170"/>
-      <c r="AC65" s="171"/>
-      <c r="AD65" s="171"/>
-      <c r="AE65" s="171"/>
-      <c r="AF65" s="172"/>
-      <c r="AG65" s="164"/>
-      <c r="AH65" s="165"/>
+      <c r="Y65" s="195"/>
+      <c r="Z65" s="196"/>
+      <c r="AA65" s="197"/>
+      <c r="AB65" s="195"/>
+      <c r="AC65" s="196"/>
+      <c r="AD65" s="196"/>
+      <c r="AE65" s="196"/>
+      <c r="AF65" s="197"/>
+      <c r="AG65" s="210"/>
+      <c r="AH65" s="211"/>
     </row>
     <row r="66" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="82"/>
@@ -11592,16 +11472,16 @@
       <c r="V66" s="83"/>
       <c r="W66" s="83"/>
       <c r="X66" s="83"/>
-      <c r="Y66" s="170"/>
-      <c r="Z66" s="171"/>
-      <c r="AA66" s="172"/>
-      <c r="AB66" s="170"/>
-      <c r="AC66" s="171"/>
-      <c r="AD66" s="171"/>
-      <c r="AE66" s="171"/>
-      <c r="AF66" s="172"/>
-      <c r="AG66" s="164"/>
-      <c r="AH66" s="165"/>
+      <c r="Y66" s="195"/>
+      <c r="Z66" s="196"/>
+      <c r="AA66" s="197"/>
+      <c r="AB66" s="195"/>
+      <c r="AC66" s="196"/>
+      <c r="AD66" s="196"/>
+      <c r="AE66" s="196"/>
+      <c r="AF66" s="197"/>
+      <c r="AG66" s="210"/>
+      <c r="AH66" s="211"/>
     </row>
     <row r="67" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="82"/>
@@ -11626,16 +11506,16 @@
       <c r="V67" s="83"/>
       <c r="W67" s="83"/>
       <c r="X67" s="83"/>
-      <c r="Y67" s="170"/>
-      <c r="Z67" s="171"/>
-      <c r="AA67" s="172"/>
-      <c r="AB67" s="170"/>
-      <c r="AC67" s="171"/>
-      <c r="AD67" s="171"/>
-      <c r="AE67" s="171"/>
-      <c r="AF67" s="172"/>
-      <c r="AG67" s="164"/>
-      <c r="AH67" s="165"/>
+      <c r="Y67" s="195"/>
+      <c r="Z67" s="196"/>
+      <c r="AA67" s="197"/>
+      <c r="AB67" s="195"/>
+      <c r="AC67" s="196"/>
+      <c r="AD67" s="196"/>
+      <c r="AE67" s="196"/>
+      <c r="AF67" s="197"/>
+      <c r="AG67" s="210"/>
+      <c r="AH67" s="211"/>
     </row>
     <row r="68" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="82"/>
@@ -11662,16 +11542,16 @@
       <c r="V68" s="83"/>
       <c r="W68" s="83"/>
       <c r="X68" s="83"/>
-      <c r="Y68" s="170"/>
-      <c r="Z68" s="171"/>
-      <c r="AA68" s="172"/>
-      <c r="AB68" s="170"/>
-      <c r="AC68" s="171"/>
-      <c r="AD68" s="171"/>
-      <c r="AE68" s="171"/>
-      <c r="AF68" s="172"/>
-      <c r="AG68" s="164"/>
-      <c r="AH68" s="165"/>
+      <c r="Y68" s="195"/>
+      <c r="Z68" s="196"/>
+      <c r="AA68" s="197"/>
+      <c r="AB68" s="195"/>
+      <c r="AC68" s="196"/>
+      <c r="AD68" s="196"/>
+      <c r="AE68" s="196"/>
+      <c r="AF68" s="197"/>
+      <c r="AG68" s="210"/>
+      <c r="AH68" s="211"/>
     </row>
     <row r="69" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="82"/>
@@ -11698,16 +11578,16 @@
       <c r="V69" s="83"/>
       <c r="W69" s="83"/>
       <c r="X69" s="83"/>
-      <c r="Y69" s="170"/>
-      <c r="Z69" s="171"/>
-      <c r="AA69" s="172"/>
-      <c r="AB69" s="170"/>
-      <c r="AC69" s="171"/>
-      <c r="AD69" s="171"/>
-      <c r="AE69" s="171"/>
-      <c r="AF69" s="172"/>
-      <c r="AG69" s="164"/>
-      <c r="AH69" s="165"/>
+      <c r="Y69" s="195"/>
+      <c r="Z69" s="196"/>
+      <c r="AA69" s="197"/>
+      <c r="AB69" s="195"/>
+      <c r="AC69" s="196"/>
+      <c r="AD69" s="196"/>
+      <c r="AE69" s="196"/>
+      <c r="AF69" s="197"/>
+      <c r="AG69" s="210"/>
+      <c r="AH69" s="211"/>
     </row>
     <row r="70" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="82"/>
@@ -11734,16 +11614,16 @@
       <c r="V70" s="83"/>
       <c r="W70" s="83"/>
       <c r="X70" s="83"/>
-      <c r="Y70" s="170"/>
-      <c r="Z70" s="171"/>
-      <c r="AA70" s="172"/>
-      <c r="AB70" s="170"/>
-      <c r="AC70" s="171"/>
-      <c r="AD70" s="171"/>
-      <c r="AE70" s="171"/>
-      <c r="AF70" s="172"/>
-      <c r="AG70" s="164"/>
-      <c r="AH70" s="165"/>
+      <c r="Y70" s="195"/>
+      <c r="Z70" s="196"/>
+      <c r="AA70" s="197"/>
+      <c r="AB70" s="195"/>
+      <c r="AC70" s="196"/>
+      <c r="AD70" s="196"/>
+      <c r="AE70" s="196"/>
+      <c r="AF70" s="197"/>
+      <c r="AG70" s="210"/>
+      <c r="AH70" s="211"/>
     </row>
     <row r="71" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="82"/>
@@ -11768,16 +11648,16 @@
       <c r="V71" s="83"/>
       <c r="W71" s="83"/>
       <c r="X71" s="83"/>
-      <c r="Y71" s="170"/>
-      <c r="Z71" s="171"/>
-      <c r="AA71" s="172"/>
-      <c r="AB71" s="170"/>
-      <c r="AC71" s="171"/>
-      <c r="AD71" s="171"/>
-      <c r="AE71" s="171"/>
-      <c r="AF71" s="172"/>
-      <c r="AG71" s="164"/>
-      <c r="AH71" s="165"/>
+      <c r="Y71" s="195"/>
+      <c r="Z71" s="196"/>
+      <c r="AA71" s="197"/>
+      <c r="AB71" s="195"/>
+      <c r="AC71" s="196"/>
+      <c r="AD71" s="196"/>
+      <c r="AE71" s="196"/>
+      <c r="AF71" s="197"/>
+      <c r="AG71" s="210"/>
+      <c r="AH71" s="211"/>
     </row>
     <row r="72" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="82"/>
@@ -11804,16 +11684,16 @@
       <c r="V72" s="83"/>
       <c r="W72" s="83"/>
       <c r="X72" s="83"/>
-      <c r="Y72" s="170"/>
-      <c r="Z72" s="171"/>
-      <c r="AA72" s="172"/>
-      <c r="AB72" s="170"/>
-      <c r="AC72" s="171"/>
-      <c r="AD72" s="171"/>
-      <c r="AE72" s="171"/>
-      <c r="AF72" s="172"/>
-      <c r="AG72" s="164"/>
-      <c r="AH72" s="165"/>
+      <c r="Y72" s="195"/>
+      <c r="Z72" s="196"/>
+      <c r="AA72" s="197"/>
+      <c r="AB72" s="195"/>
+      <c r="AC72" s="196"/>
+      <c r="AD72" s="196"/>
+      <c r="AE72" s="196"/>
+      <c r="AF72" s="197"/>
+      <c r="AG72" s="210"/>
+      <c r="AH72" s="211"/>
     </row>
     <row r="73" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="82"/>
@@ -11840,16 +11720,16 @@
       <c r="V73" s="83"/>
       <c r="W73" s="83"/>
       <c r="X73" s="83"/>
-      <c r="Y73" s="170"/>
-      <c r="Z73" s="171"/>
-      <c r="AA73" s="172"/>
-      <c r="AB73" s="170"/>
-      <c r="AC73" s="171"/>
-      <c r="AD73" s="171"/>
-      <c r="AE73" s="171"/>
-      <c r="AF73" s="172"/>
-      <c r="AG73" s="164"/>
-      <c r="AH73" s="165"/>
+      <c r="Y73" s="195"/>
+      <c r="Z73" s="196"/>
+      <c r="AA73" s="197"/>
+      <c r="AB73" s="195"/>
+      <c r="AC73" s="196"/>
+      <c r="AD73" s="196"/>
+      <c r="AE73" s="196"/>
+      <c r="AF73" s="197"/>
+      <c r="AG73" s="210"/>
+      <c r="AH73" s="211"/>
     </row>
     <row r="74" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="82"/>
@@ -11874,16 +11754,16 @@
       <c r="V74" s="83"/>
       <c r="W74" s="83"/>
       <c r="X74" s="83"/>
-      <c r="Y74" s="170"/>
-      <c r="Z74" s="171"/>
-      <c r="AA74" s="172"/>
-      <c r="AB74" s="170"/>
-      <c r="AC74" s="171"/>
-      <c r="AD74" s="171"/>
-      <c r="AE74" s="171"/>
-      <c r="AF74" s="172"/>
-      <c r="AG74" s="164"/>
-      <c r="AH74" s="165"/>
+      <c r="Y74" s="195"/>
+      <c r="Z74" s="196"/>
+      <c r="AA74" s="197"/>
+      <c r="AB74" s="195"/>
+      <c r="AC74" s="196"/>
+      <c r="AD74" s="196"/>
+      <c r="AE74" s="196"/>
+      <c r="AF74" s="197"/>
+      <c r="AG74" s="210"/>
+      <c r="AH74" s="211"/>
     </row>
     <row r="75" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="82"/>
@@ -11910,16 +11790,16 @@
       <c r="V75" s="83"/>
       <c r="W75" s="83"/>
       <c r="X75" s="83"/>
-      <c r="Y75" s="170"/>
-      <c r="Z75" s="171"/>
-      <c r="AA75" s="172"/>
-      <c r="AB75" s="170"/>
-      <c r="AC75" s="171"/>
-      <c r="AD75" s="171"/>
-      <c r="AE75" s="171"/>
-      <c r="AF75" s="172"/>
-      <c r="AG75" s="164"/>
-      <c r="AH75" s="165"/>
+      <c r="Y75" s="195"/>
+      <c r="Z75" s="196"/>
+      <c r="AA75" s="197"/>
+      <c r="AB75" s="195"/>
+      <c r="AC75" s="196"/>
+      <c r="AD75" s="196"/>
+      <c r="AE75" s="196"/>
+      <c r="AF75" s="197"/>
+      <c r="AG75" s="210"/>
+      <c r="AH75" s="211"/>
     </row>
     <row r="76" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="82"/>
@@ -11944,16 +11824,16 @@
       <c r="V76" s="83"/>
       <c r="W76" s="83"/>
       <c r="X76" s="83"/>
-      <c r="Y76" s="170"/>
-      <c r="Z76" s="171"/>
-      <c r="AA76" s="172"/>
-      <c r="AB76" s="170"/>
-      <c r="AC76" s="171"/>
-      <c r="AD76" s="171"/>
-      <c r="AE76" s="171"/>
-      <c r="AF76" s="172"/>
-      <c r="AG76" s="164"/>
-      <c r="AH76" s="165"/>
+      <c r="Y76" s="195"/>
+      <c r="Z76" s="196"/>
+      <c r="AA76" s="197"/>
+      <c r="AB76" s="195"/>
+      <c r="AC76" s="196"/>
+      <c r="AD76" s="196"/>
+      <c r="AE76" s="196"/>
+      <c r="AF76" s="197"/>
+      <c r="AG76" s="210"/>
+      <c r="AH76" s="211"/>
     </row>
     <row r="77" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="82"/>
@@ -11979,16 +11859,16 @@
       <c r="V77" s="83"/>
       <c r="W77" s="83"/>
       <c r="X77" s="83"/>
-      <c r="Y77" s="170"/>
-      <c r="Z77" s="171"/>
-      <c r="AA77" s="172"/>
-      <c r="AB77" s="170"/>
-      <c r="AC77" s="171"/>
-      <c r="AD77" s="171"/>
-      <c r="AE77" s="171"/>
-      <c r="AF77" s="172"/>
-      <c r="AG77" s="164"/>
-      <c r="AH77" s="165"/>
+      <c r="Y77" s="195"/>
+      <c r="Z77" s="196"/>
+      <c r="AA77" s="197"/>
+      <c r="AB77" s="195"/>
+      <c r="AC77" s="196"/>
+      <c r="AD77" s="196"/>
+      <c r="AE77" s="196"/>
+      <c r="AF77" s="197"/>
+      <c r="AG77" s="210"/>
+      <c r="AH77" s="211"/>
     </row>
     <row r="78" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="86"/>
@@ -12014,53 +11894,116 @@
       <c r="V78" s="87"/>
       <c r="W78" s="87"/>
       <c r="X78" s="87"/>
-      <c r="Y78" s="176"/>
-      <c r="Z78" s="177"/>
-      <c r="AA78" s="178"/>
-      <c r="AB78" s="176"/>
-      <c r="AC78" s="177"/>
-      <c r="AD78" s="177"/>
-      <c r="AE78" s="177"/>
-      <c r="AF78" s="178"/>
-      <c r="AG78" s="162"/>
-      <c r="AH78" s="163"/>
+      <c r="Y78" s="205"/>
+      <c r="Z78" s="206"/>
+      <c r="AA78" s="207"/>
+      <c r="AB78" s="205"/>
+      <c r="AC78" s="206"/>
+      <c r="AD78" s="206"/>
+      <c r="AE78" s="206"/>
+      <c r="AF78" s="207"/>
+      <c r="AG78" s="214"/>
+      <c r="AH78" s="215"/>
     </row>
     <row r="79" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="B43:AH43"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="AB53:AF53"/>
-    <mergeCell ref="S45:W45"/>
-    <mergeCell ref="B53:X53"/>
-    <mergeCell ref="X45:AH45"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AG70:AH70"/>
+    <mergeCell ref="AG71:AH71"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AB74:AF74"/>
+    <mergeCell ref="AB75:AF75"/>
+    <mergeCell ref="AB76:AF76"/>
+    <mergeCell ref="AB77:AF77"/>
+    <mergeCell ref="AB59:AF59"/>
+    <mergeCell ref="AB60:AF60"/>
+    <mergeCell ref="AB61:AF61"/>
+    <mergeCell ref="AB62:AF62"/>
+    <mergeCell ref="AB63:AF63"/>
+    <mergeCell ref="AB54:AF54"/>
+    <mergeCell ref="AB55:AF55"/>
+    <mergeCell ref="AB56:AF56"/>
+    <mergeCell ref="AB57:AF57"/>
+    <mergeCell ref="AB58:AF58"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AB78:AF78"/>
+    <mergeCell ref="AB69:AF69"/>
+    <mergeCell ref="AB70:AF70"/>
+    <mergeCell ref="AB71:AF71"/>
+    <mergeCell ref="AB72:AF72"/>
+    <mergeCell ref="AB73:AF73"/>
+    <mergeCell ref="AB64:AF64"/>
+    <mergeCell ref="AB65:AF65"/>
+    <mergeCell ref="AB66:AF66"/>
+    <mergeCell ref="AB67:AF67"/>
+    <mergeCell ref="AB68:AF68"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="U33:AH33"/>
+    <mergeCell ref="B34:AH34"/>
+    <mergeCell ref="Q35:AH35"/>
+    <mergeCell ref="Q36:AH36"/>
+    <mergeCell ref="B25:AH25"/>
+    <mergeCell ref="B26:AH32"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:U24"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B39:AH39"/>
+    <mergeCell ref="N40:AH40"/>
+    <mergeCell ref="N41:AH41"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:J44"/>
@@ -12085,100 +12028,37 @@
     <mergeCell ref="Q38:AH38"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="N42:AH42"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="U33:AH33"/>
-    <mergeCell ref="B34:AH34"/>
-    <mergeCell ref="Q35:AH35"/>
-    <mergeCell ref="Q36:AH36"/>
-    <mergeCell ref="B25:AH25"/>
-    <mergeCell ref="B26:AH32"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:U24"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B39:AH39"/>
-    <mergeCell ref="N40:AH40"/>
-    <mergeCell ref="N41:AH41"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="AB78:AF78"/>
-    <mergeCell ref="AB69:AF69"/>
-    <mergeCell ref="AB70:AF70"/>
-    <mergeCell ref="AB71:AF71"/>
-    <mergeCell ref="AB72:AF72"/>
-    <mergeCell ref="AB73:AF73"/>
-    <mergeCell ref="AB64:AF64"/>
-    <mergeCell ref="AB65:AF65"/>
-    <mergeCell ref="AB66:AF66"/>
-    <mergeCell ref="AB67:AF67"/>
-    <mergeCell ref="AB68:AF68"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AB74:AF74"/>
-    <mergeCell ref="AB75:AF75"/>
-    <mergeCell ref="AB76:AF76"/>
-    <mergeCell ref="AB77:AF77"/>
-    <mergeCell ref="AB59:AF59"/>
-    <mergeCell ref="AB60:AF60"/>
-    <mergeCell ref="AB61:AF61"/>
-    <mergeCell ref="AB62:AF62"/>
-    <mergeCell ref="AB63:AF63"/>
-    <mergeCell ref="AB54:AF54"/>
-    <mergeCell ref="AB55:AF55"/>
-    <mergeCell ref="AB56:AF56"/>
-    <mergeCell ref="AB57:AF57"/>
-    <mergeCell ref="AB58:AF58"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AG70:AH70"/>
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B43:AH43"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AB53:AF53"/>
+    <mergeCell ref="S45:W45"/>
+    <mergeCell ref="B53:X53"/>
+    <mergeCell ref="X45:AH45"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <dataValidations count="2">

--- a/030_設計ドキュメント/020_サンプル/020_共通コンポーネント設計/共通コンポーネント設計書_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/020_共通コンポーネント設計/共通コンポーネント設計書_サンプル.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6523E052-7CC9-4DE1-A379-B53F00C3BB0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12345" yWindow="135" windowWidth="16425" windowHeight="13485" tabRatio="822"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="18" r:id="rId1"/>
@@ -21,12 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>PJ名</t>
   </si>
@@ -348,16 +357,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>システム設定テーブルからデフォルト値を取得する。</t>
-    <rPh sb="17" eb="18">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>取得できなかった場合、戻り値にnullを設定し、処理を返却する。</t>
     <rPh sb="0" eb="2">
       <t>シュトク</t>
@@ -420,13 +419,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>システム設定</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -666,16 +658,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>成果物名</t>
   </si>
   <si>
@@ -799,36 +781,6 @@
   </si>
   <si>
     <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>検索処理</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -868,11 +820,87 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>システム設定値(企業)</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1. システム設定DBアクセス</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2. 検索処理</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・CRUD一覧の対象を見直し
+・処理定義の2. 検索処理を見直し、処理仕様を簡略化
+</t>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ショリテイギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ショリシヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>カンリャクカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -1232,7 +1260,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1449,9 +1477,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1563,86 +1687,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1653,11 +1702,65 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1668,9 +1771,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1686,157 +1870,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="パーセント 2" xfId="7"/>
+    <cellStyle name="パーセント 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 2 2" xfId="5"/>
-    <cellStyle name="標準_ガイドライン１" xfId="1"/>
-    <cellStyle name="標準_画面標準" xfId="2"/>
-    <cellStyle name="標準_画面標準定義" xfId="3"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_ガイドライン１" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1859,7 +1911,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -1874,7 +1932,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1958,7 +2022,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2058,7 +2128,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2257,7 +2333,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2320,20 +2402,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20636203">
-          <a:off x="981075" y="3514725"/>
+          <a:off x="1581150" y="2324101"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2399,7 +2487,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2475,7 +2569,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13343" name="Rectangle 31"/>
+        <xdr:cNvPr id="13343" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2597,7 +2697,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13329" name="Rectangle 17"/>
+        <xdr:cNvPr id="13329" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3234,7 +3340,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13314" name="Rectangle 2"/>
+        <xdr:cNvPr id="13314" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3315,7 +3427,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13315" name="Rectangle 3"/>
+        <xdr:cNvPr id="13315" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3396,7 +3514,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13316" name="Rectangle 4"/>
+        <xdr:cNvPr id="13316" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3477,7 +3601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13317" name="Rectangle 5"/>
+        <xdr:cNvPr id="13317" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3558,7 +3688,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13318" name="Rectangle 6"/>
+        <xdr:cNvPr id="13318" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3639,7 +3775,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13319" name="Rectangle 7"/>
+        <xdr:cNvPr id="13319" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3720,7 +3862,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13320" name="Rectangle 8"/>
+        <xdr:cNvPr id="13320" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3801,7 +3949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13321" name="Rectangle 9"/>
+        <xdr:cNvPr id="13321" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3882,7 +4036,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13322" name="Rectangle 10"/>
+        <xdr:cNvPr id="13322" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3963,7 +4123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13323" name="Rectangle 11"/>
+        <xdr:cNvPr id="13323" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4044,7 +4210,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13324" name="Rectangle 12"/>
+        <xdr:cNvPr id="13324" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4125,7 +4297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13325" name="Rectangle 13"/>
+        <xdr:cNvPr id="13325" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4206,7 +4384,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13326" name="Rectangle 14"/>
+        <xdr:cNvPr id="13326" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4287,7 +4471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13331" name="Rectangle 19"/>
+        <xdr:cNvPr id="13331" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4361,7 +4551,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13339" name="Rectangle 27"/>
+        <xdr:cNvPr id="13339" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4435,7 +4631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13340" name="Rectangle 28"/>
+        <xdr:cNvPr id="13340" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4509,7 +4711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13341" name="Rectangle 29"/>
+        <xdr:cNvPr id="13341" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4583,7 +4791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13348" name="Rectangle 36"/>
+        <xdr:cNvPr id="13348" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4664,7 +4878,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13349" name="Rectangle 37"/>
+        <xdr:cNvPr id="13349" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4745,7 +4965,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13350" name="Rectangle 38"/>
+        <xdr:cNvPr id="13350" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4826,7 +5052,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13351" name="Rectangle 39"/>
+        <xdr:cNvPr id="13351" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4907,7 +5139,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13352" name="Rectangle 40"/>
+        <xdr:cNvPr id="13352" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4988,7 +5226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13353" name="Rectangle 41"/>
+        <xdr:cNvPr id="13353" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5069,7 +5313,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13470" name="AutoShape 42"/>
+        <xdr:cNvPr id="13470" name="AutoShape 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00009E340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5127,7 +5377,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13355" name="AutoShape 43"/>
+        <xdr:cNvPr id="13355" name="AutoShape 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B340000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -5250,7 +5506,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5316,7 +5578,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5746,7 +6014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5794,7 +6062,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5806,12 +6074,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="92">
+      <c r="I25" s="93">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43336</v>
-      </c>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
+        <v>44816</v>
+      </c>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -6394,7 +6662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6410,57 +6678,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="127" t="str">
+      <c r="A1" s="132" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="159" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="93">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="125">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="95"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="127"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -6468,53 +6736,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="106" t="str">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="138" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="93" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="125">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="95"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="127"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -6522,45 +6790,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="95"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="127"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6595,1192 +6863,1050 @@
     </row>
     <row r="7" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="96" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="96" t="s">
+      <c r="E7" s="130"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="96" t="s">
+      <c r="H7" s="130"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="96" t="s">
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="97"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="129"/>
     </row>
     <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144">
-        <v>43336</v>
-      </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="153" t="s">
-        <v>90</v>
-      </c>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="155"/>
-      <c r="AF8" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="152"/>
-    </row>
-    <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="140"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="140"/>
-      <c r="AC9" s="140"/>
-      <c r="AD9" s="140"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="136"/>
-      <c r="AG9" s="137"/>
-      <c r="AH9" s="137"/>
-      <c r="AI9" s="138"/>
+      <c r="AG8" s="120"/>
+      <c r="AH8" s="120"/>
+      <c r="AI8" s="121"/>
+    </row>
+    <row r="9" spans="1:40" s="25" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26">
+        <v>2</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96">
+        <v>44816</v>
+      </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="99"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="102"/>
     </row>
     <row r="10" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="140"/>
-      <c r="S10" s="140"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
-      <c r="AB10" s="140"/>
-      <c r="AC10" s="140"/>
-      <c r="AD10" s="140"/>
-      <c r="AE10" s="141"/>
-      <c r="AF10" s="136"/>
-      <c r="AG10" s="137"/>
-      <c r="AH10" s="137"/>
-      <c r="AI10" s="138"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="102"/>
     </row>
     <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="140"/>
-      <c r="AD11" s="140"/>
-      <c r="AE11" s="141"/>
-      <c r="AF11" s="136"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="137"/>
-      <c r="AI11" s="138"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="102"/>
     </row>
     <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="140"/>
-      <c r="S12" s="140"/>
-      <c r="T12" s="140"/>
-      <c r="U12" s="140"/>
-      <c r="V12" s="140"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="140"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="141"/>
-      <c r="AF12" s="136"/>
-      <c r="AG12" s="137"/>
-      <c r="AH12" s="137"/>
-      <c r="AI12" s="138"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="102"/>
     </row>
     <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="140"/>
-      <c r="T13" s="140"/>
-      <c r="U13" s="140"/>
-      <c r="V13" s="140"/>
-      <c r="W13" s="140"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="140"/>
-      <c r="Z13" s="140"/>
-      <c r="AA13" s="140"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="140"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="136"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="138"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="102"/>
     </row>
     <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="140"/>
-      <c r="S14" s="140"/>
-      <c r="T14" s="140"/>
-      <c r="U14" s="140"/>
-      <c r="V14" s="140"/>
-      <c r="W14" s="140"/>
-      <c r="X14" s="140"/>
-      <c r="Y14" s="140"/>
-      <c r="Z14" s="140"/>
-      <c r="AA14" s="140"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="140"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="137"/>
-      <c r="AH14" s="137"/>
-      <c r="AI14" s="138"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="102"/>
     </row>
     <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="140"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="140"/>
-      <c r="V15" s="140"/>
-      <c r="W15" s="140"/>
-      <c r="X15" s="140"/>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="141"/>
-      <c r="AF15" s="136"/>
-      <c r="AG15" s="137"/>
-      <c r="AH15" s="137"/>
-      <c r="AI15" s="138"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="102"/>
     </row>
     <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="140"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="141"/>
-      <c r="AF16" s="136"/>
-      <c r="AG16" s="137"/>
-      <c r="AH16" s="137"/>
-      <c r="AI16" s="138"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
     </row>
     <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="140"/>
-      <c r="S17" s="140"/>
-      <c r="T17" s="140"/>
-      <c r="U17" s="140"/>
-      <c r="V17" s="140"/>
-      <c r="W17" s="140"/>
-      <c r="X17" s="140"/>
-      <c r="Y17" s="140"/>
-      <c r="Z17" s="140"/>
-      <c r="AA17" s="140"/>
-      <c r="AB17" s="140"/>
-      <c r="AC17" s="140"/>
-      <c r="AD17" s="140"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="136"/>
-      <c r="AG17" s="137"/>
-      <c r="AH17" s="137"/>
-      <c r="AI17" s="138"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="102"/>
     </row>
     <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="140"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="140"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="140"/>
-      <c r="W18" s="140"/>
-      <c r="X18" s="140"/>
-      <c r="Y18" s="140"/>
-      <c r="Z18" s="140"/>
-      <c r="AA18" s="140"/>
-      <c r="AB18" s="140"/>
-      <c r="AC18" s="140"/>
-      <c r="AD18" s="140"/>
-      <c r="AE18" s="141"/>
-      <c r="AF18" s="136"/>
-      <c r="AG18" s="137"/>
-      <c r="AH18" s="137"/>
-      <c r="AI18" s="138"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="102"/>
     </row>
     <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="140"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="140"/>
-      <c r="W19" s="140"/>
-      <c r="X19" s="140"/>
-      <c r="Y19" s="140"/>
-      <c r="Z19" s="140"/>
-      <c r="AA19" s="140"/>
-      <c r="AB19" s="140"/>
-      <c r="AC19" s="140"/>
-      <c r="AD19" s="140"/>
-      <c r="AE19" s="141"/>
-      <c r="AF19" s="136"/>
-      <c r="AG19" s="137"/>
-      <c r="AH19" s="137"/>
-      <c r="AI19" s="138"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="102"/>
     </row>
     <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="140"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="140"/>
-      <c r="V20" s="140"/>
-      <c r="W20" s="140"/>
-      <c r="X20" s="140"/>
-      <c r="Y20" s="140"/>
-      <c r="Z20" s="140"/>
-      <c r="AA20" s="140"/>
-      <c r="AB20" s="140"/>
-      <c r="AC20" s="140"/>
-      <c r="AD20" s="140"/>
-      <c r="AE20" s="141"/>
-      <c r="AF20" s="136"/>
-      <c r="AG20" s="137"/>
-      <c r="AH20" s="137"/>
-      <c r="AI20" s="138"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="102"/>
     </row>
     <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="140"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="140"/>
-      <c r="U21" s="140"/>
-      <c r="V21" s="140"/>
-      <c r="W21" s="140"/>
-      <c r="X21" s="140"/>
-      <c r="Y21" s="140"/>
-      <c r="Z21" s="140"/>
-      <c r="AA21" s="140"/>
-      <c r="AB21" s="140"/>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="140"/>
-      <c r="AE21" s="141"/>
-      <c r="AF21" s="136"/>
-      <c r="AG21" s="137"/>
-      <c r="AH21" s="137"/>
-      <c r="AI21" s="138"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="102"/>
     </row>
     <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="140"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="140"/>
-      <c r="U22" s="140"/>
-      <c r="V22" s="140"/>
-      <c r="W22" s="140"/>
-      <c r="X22" s="140"/>
-      <c r="Y22" s="140"/>
-      <c r="Z22" s="140"/>
-      <c r="AA22" s="140"/>
-      <c r="AB22" s="140"/>
-      <c r="AC22" s="140"/>
-      <c r="AD22" s="140"/>
-      <c r="AE22" s="141"/>
-      <c r="AF22" s="136"/>
-      <c r="AG22" s="137"/>
-      <c r="AH22" s="137"/>
-      <c r="AI22" s="138"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="102"/>
     </row>
     <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="140"/>
-      <c r="S23" s="140"/>
-      <c r="T23" s="140"/>
-      <c r="U23" s="140"/>
-      <c r="V23" s="140"/>
-      <c r="W23" s="140"/>
-      <c r="X23" s="140"/>
-      <c r="Y23" s="140"/>
-      <c r="Z23" s="140"/>
-      <c r="AA23" s="140"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="141"/>
-      <c r="AF23" s="136"/>
-      <c r="AG23" s="137"/>
-      <c r="AH23" s="137"/>
-      <c r="AI23" s="138"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="102"/>
     </row>
     <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="140"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="140"/>
-      <c r="U24" s="140"/>
-      <c r="V24" s="140"/>
-      <c r="W24" s="140"/>
-      <c r="X24" s="140"/>
-      <c r="Y24" s="140"/>
-      <c r="Z24" s="140"/>
-      <c r="AA24" s="140"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="141"/>
-      <c r="AF24" s="136"/>
-      <c r="AG24" s="137"/>
-      <c r="AH24" s="137"/>
-      <c r="AI24" s="138"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="101"/>
+      <c r="AI24" s="102"/>
     </row>
     <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="139"/>
-      <c r="R25" s="140"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="140"/>
-      <c r="V25" s="140"/>
-      <c r="W25" s="140"/>
-      <c r="X25" s="140"/>
-      <c r="Y25" s="140"/>
-      <c r="Z25" s="140"/>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="140"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="140"/>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="136"/>
-      <c r="AG25" s="137"/>
-      <c r="AH25" s="137"/>
-      <c r="AI25" s="138"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="102"/>
     </row>
     <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="140"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="140"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="140"/>
-      <c r="Y26" s="140"/>
-      <c r="Z26" s="140"/>
-      <c r="AA26" s="140"/>
-      <c r="AB26" s="140"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="140"/>
-      <c r="AE26" s="141"/>
-      <c r="AF26" s="136"/>
-      <c r="AG26" s="137"/>
-      <c r="AH26" s="137"/>
-      <c r="AI26" s="138"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="101"/>
+      <c r="AI26" s="102"/>
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="140"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="140"/>
-      <c r="Y27" s="140"/>
-      <c r="Z27" s="140"/>
-      <c r="AA27" s="140"/>
-      <c r="AB27" s="140"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="141"/>
-      <c r="AF27" s="136"/>
-      <c r="AG27" s="137"/>
-      <c r="AH27" s="137"/>
-      <c r="AI27" s="138"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="102"/>
     </row>
     <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="140"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="140"/>
-      <c r="W28" s="140"/>
-      <c r="X28" s="140"/>
-      <c r="Y28" s="140"/>
-      <c r="Z28" s="140"/>
-      <c r="AA28" s="140"/>
-      <c r="AB28" s="140"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="140"/>
-      <c r="AE28" s="141"/>
-      <c r="AF28" s="136"/>
-      <c r="AG28" s="137"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="138"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="102"/>
     </row>
     <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="140"/>
-      <c r="S29" s="140"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="140"/>
-      <c r="V29" s="140"/>
-      <c r="W29" s="140"/>
-      <c r="X29" s="140"/>
-      <c r="Y29" s="140"/>
-      <c r="Z29" s="140"/>
-      <c r="AA29" s="140"/>
-      <c r="AB29" s="140"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="140"/>
-      <c r="AE29" s="141"/>
-      <c r="AF29" s="136"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="137"/>
-      <c r="AI29" s="138"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="102"/>
     </row>
     <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="138"/>
-      <c r="Q30" s="139"/>
-      <c r="R30" s="140"/>
-      <c r="S30" s="140"/>
-      <c r="T30" s="140"/>
-      <c r="U30" s="140"/>
-      <c r="V30" s="140"/>
-      <c r="W30" s="140"/>
-      <c r="X30" s="140"/>
-      <c r="Y30" s="140"/>
-      <c r="Z30" s="140"/>
-      <c r="AA30" s="140"/>
-      <c r="AB30" s="140"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="140"/>
-      <c r="AE30" s="141"/>
-      <c r="AF30" s="136"/>
-      <c r="AG30" s="137"/>
-      <c r="AH30" s="137"/>
-      <c r="AI30" s="138"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="101"/>
+      <c r="AI30" s="102"/>
     </row>
     <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="139"/>
-      <c r="R31" s="140"/>
-      <c r="S31" s="140"/>
-      <c r="T31" s="140"/>
-      <c r="U31" s="140"/>
-      <c r="V31" s="140"/>
-      <c r="W31" s="140"/>
-      <c r="X31" s="140"/>
-      <c r="Y31" s="140"/>
-      <c r="Z31" s="140"/>
-      <c r="AA31" s="140"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="141"/>
-      <c r="AF31" s="136"/>
-      <c r="AG31" s="137"/>
-      <c r="AH31" s="137"/>
-      <c r="AI31" s="138"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="102"/>
     </row>
     <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="138"/>
-      <c r="Q32" s="139"/>
-      <c r="R32" s="140"/>
-      <c r="S32" s="140"/>
-      <c r="T32" s="140"/>
-      <c r="U32" s="140"/>
-      <c r="V32" s="140"/>
-      <c r="W32" s="140"/>
-      <c r="X32" s="140"/>
-      <c r="Y32" s="140"/>
-      <c r="Z32" s="140"/>
-      <c r="AA32" s="140"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="140"/>
-      <c r="AE32" s="141"/>
-      <c r="AF32" s="136"/>
-      <c r="AG32" s="137"/>
-      <c r="AH32" s="137"/>
-      <c r="AI32" s="138"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="101"/>
+      <c r="AI32" s="102"/>
     </row>
     <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="138"/>
-      <c r="Q33" s="139"/>
-      <c r="R33" s="140"/>
-      <c r="S33" s="140"/>
-      <c r="T33" s="140"/>
-      <c r="U33" s="140"/>
-      <c r="V33" s="140"/>
-      <c r="W33" s="140"/>
-      <c r="X33" s="140"/>
-      <c r="Y33" s="140"/>
-      <c r="Z33" s="140"/>
-      <c r="AA33" s="140"/>
-      <c r="AB33" s="140"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="140"/>
-      <c r="AE33" s="141"/>
-      <c r="AF33" s="136"/>
-      <c r="AG33" s="137"/>
-      <c r="AH33" s="137"/>
-      <c r="AI33" s="138"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="101"/>
+      <c r="AI33" s="102"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -7804,6 +7930,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -7815,7 +8097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7961,163 +8243,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103" t="str">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="135" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="118" t="str">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>共通コンポーネント設計</v>
       </c>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="160" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="127" t="str">
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="str">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="160" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="127" t="str">
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="157" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="str">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="127" t="str">
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -8177,7 +8459,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
@@ -8238,7 +8520,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="89" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -9580,6 +9862,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9589,14 +9879,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -9608,7 +9890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9624,161 +9906,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103" t="str">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="135" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="171" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="180" t="str">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="200" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>共通コンポーネント設計</v>
       </c>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="100" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="127" t="str">
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="8"/>
     </row>
     <row r="2" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="str">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="100" t="s">
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="127" t="str">
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="157" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
     <row r="3" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="str">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="127" t="str">
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
     </row>
@@ -9803,907 +10085,907 @@
     <row r="22" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="201" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="198" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="199"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="201" t="s">
+      <c r="B24" s="190" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="184" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="202"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="198" t="s">
-        <v>73</v>
-      </c>
-      <c r="N24" s="199"/>
-      <c r="O24" s="199"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="200"/>
-      <c r="V24" s="201" t="s">
+      <c r="J24" s="191"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="192"/>
+      <c r="M24" s="184" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="185"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
+      <c r="U24" s="186"/>
+      <c r="V24" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="W24" s="202"/>
-      <c r="X24" s="202"/>
-      <c r="Y24" s="203"/>
-      <c r="Z24" s="198" t="s">
+      <c r="W24" s="191"/>
+      <c r="X24" s="191"/>
+      <c r="Y24" s="192"/>
+      <c r="Z24" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="AA24" s="199"/>
-      <c r="AB24" s="199"/>
-      <c r="AC24" s="199"/>
-      <c r="AD24" s="199"/>
-      <c r="AE24" s="199"/>
-      <c r="AF24" s="199"/>
-      <c r="AG24" s="199"/>
-      <c r="AH24" s="200"/>
+      <c r="AA24" s="185"/>
+      <c r="AB24" s="185"/>
+      <c r="AC24" s="185"/>
+      <c r="AD24" s="185"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="185"/>
+      <c r="AG24" s="185"/>
+      <c r="AH24" s="186"/>
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
       <c r="AL24" s="17"/>
     </row>
     <row r="25" spans="2:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="201" t="s">
+      <c r="B25" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="202"/>
-      <c r="P25" s="202"/>
-      <c r="Q25" s="202"/>
-      <c r="R25" s="202"/>
-      <c r="S25" s="202"/>
-      <c r="T25" s="202"/>
-      <c r="U25" s="202"/>
-      <c r="V25" s="202"/>
-      <c r="W25" s="202"/>
-      <c r="X25" s="202"/>
-      <c r="Y25" s="202"/>
-      <c r="Z25" s="202"/>
-      <c r="AA25" s="202"/>
-      <c r="AB25" s="202"/>
-      <c r="AC25" s="202"/>
-      <c r="AD25" s="202"/>
-      <c r="AE25" s="202"/>
-      <c r="AF25" s="202"/>
-      <c r="AG25" s="202"/>
-      <c r="AH25" s="203"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="191"/>
+      <c r="R25" s="191"/>
+      <c r="S25" s="191"/>
+      <c r="T25" s="191"/>
+      <c r="U25" s="191"/>
+      <c r="V25" s="191"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="191"/>
+      <c r="Y25" s="191"/>
+      <c r="Z25" s="191"/>
+      <c r="AA25" s="191"/>
+      <c r="AB25" s="191"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="191"/>
+      <c r="AE25" s="191"/>
+      <c r="AF25" s="191"/>
+      <c r="AG25" s="191"/>
+      <c r="AH25" s="192"/>
       <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
     </row>
     <row r="26" spans="2:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="204" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="193"/>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="193"/>
-      <c r="S26" s="193"/>
-      <c r="T26" s="193"/>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="193"/>
-      <c r="Y26" s="193"/>
-      <c r="Z26" s="193"/>
-      <c r="AA26" s="193"/>
-      <c r="AB26" s="193"/>
-      <c r="AC26" s="193"/>
-      <c r="AD26" s="193"/>
-      <c r="AE26" s="193"/>
-      <c r="AF26" s="193"/>
-      <c r="AG26" s="193"/>
-      <c r="AH26" s="194"/>
+      <c r="B26" s="193" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="179"/>
+      <c r="N26" s="179"/>
+      <c r="O26" s="179"/>
+      <c r="P26" s="179"/>
+      <c r="Q26" s="179"/>
+      <c r="R26" s="179"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="179"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="179"/>
+      <c r="W26" s="179"/>
+      <c r="X26" s="179"/>
+      <c r="Y26" s="179"/>
+      <c r="Z26" s="179"/>
+      <c r="AA26" s="179"/>
+      <c r="AB26" s="179"/>
+      <c r="AC26" s="179"/>
+      <c r="AD26" s="179"/>
+      <c r="AE26" s="179"/>
+      <c r="AF26" s="179"/>
+      <c r="AG26" s="179"/>
+      <c r="AH26" s="180"/>
     </row>
     <row r="27" spans="2:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="196"/>
-      <c r="L27" s="196"/>
-      <c r="M27" s="196"/>
-      <c r="N27" s="196"/>
-      <c r="O27" s="196"/>
-      <c r="P27" s="196"/>
-      <c r="Q27" s="196"/>
-      <c r="R27" s="196"/>
-      <c r="S27" s="196"/>
-      <c r="T27" s="196"/>
-      <c r="U27" s="196"/>
-      <c r="V27" s="196"/>
-      <c r="W27" s="196"/>
-      <c r="X27" s="196"/>
-      <c r="Y27" s="196"/>
-      <c r="Z27" s="196"/>
-      <c r="AA27" s="196"/>
-      <c r="AB27" s="196"/>
-      <c r="AC27" s="196"/>
-      <c r="AD27" s="196"/>
-      <c r="AE27" s="196"/>
-      <c r="AF27" s="196"/>
-      <c r="AG27" s="196"/>
-      <c r="AH27" s="197"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="176"/>
+      <c r="O27" s="176"/>
+      <c r="P27" s="176"/>
+      <c r="Q27" s="176"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="176"/>
+      <c r="V27" s="176"/>
+      <c r="W27" s="176"/>
+      <c r="X27" s="176"/>
+      <c r="Y27" s="176"/>
+      <c r="Z27" s="176"/>
+      <c r="AA27" s="176"/>
+      <c r="AB27" s="176"/>
+      <c r="AC27" s="176"/>
+      <c r="AD27" s="176"/>
+      <c r="AE27" s="176"/>
+      <c r="AF27" s="176"/>
+      <c r="AG27" s="176"/>
+      <c r="AH27" s="177"/>
     </row>
     <row r="28" spans="2:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="195"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="196"/>
-      <c r="N28" s="196"/>
-      <c r="O28" s="196"/>
-      <c r="P28" s="196"/>
-      <c r="Q28" s="196"/>
-      <c r="R28" s="196"/>
-      <c r="S28" s="196"/>
-      <c r="T28" s="196"/>
-      <c r="U28" s="196"/>
-      <c r="V28" s="196"/>
-      <c r="W28" s="196"/>
-      <c r="X28" s="196"/>
-      <c r="Y28" s="196"/>
-      <c r="Z28" s="196"/>
-      <c r="AA28" s="196"/>
-      <c r="AB28" s="196"/>
-      <c r="AC28" s="196"/>
-      <c r="AD28" s="196"/>
-      <c r="AE28" s="196"/>
-      <c r="AF28" s="196"/>
-      <c r="AG28" s="196"/>
-      <c r="AH28" s="197"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="176"/>
+      <c r="Y28" s="176"/>
+      <c r="Z28" s="176"/>
+      <c r="AA28" s="176"/>
+      <c r="AB28" s="176"/>
+      <c r="AC28" s="176"/>
+      <c r="AD28" s="176"/>
+      <c r="AE28" s="176"/>
+      <c r="AF28" s="176"/>
+      <c r="AG28" s="176"/>
+      <c r="AH28" s="177"/>
     </row>
     <row r="29" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="195"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="196"/>
-      <c r="N29" s="196"/>
-      <c r="O29" s="196"/>
-      <c r="P29" s="196"/>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="196"/>
-      <c r="S29" s="196"/>
-      <c r="T29" s="196"/>
-      <c r="U29" s="196"/>
-      <c r="V29" s="196"/>
-      <c r="W29" s="196"/>
-      <c r="X29" s="196"/>
-      <c r="Y29" s="196"/>
-      <c r="Z29" s="196"/>
-      <c r="AA29" s="196"/>
-      <c r="AB29" s="196"/>
-      <c r="AC29" s="196"/>
-      <c r="AD29" s="196"/>
-      <c r="AE29" s="196"/>
-      <c r="AF29" s="196"/>
-      <c r="AG29" s="196"/>
-      <c r="AH29" s="197"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="176"/>
+      <c r="R29" s="176"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="176"/>
+      <c r="X29" s="176"/>
+      <c r="Y29" s="176"/>
+      <c r="Z29" s="176"/>
+      <c r="AA29" s="176"/>
+      <c r="AB29" s="176"/>
+      <c r="AC29" s="176"/>
+      <c r="AD29" s="176"/>
+      <c r="AE29" s="176"/>
+      <c r="AF29" s="176"/>
+      <c r="AG29" s="176"/>
+      <c r="AH29" s="177"/>
     </row>
     <row r="30" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="195"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="196"/>
-      <c r="L30" s="196"/>
-      <c r="M30" s="196"/>
-      <c r="N30" s="196"/>
-      <c r="O30" s="196"/>
-      <c r="P30" s="196"/>
-      <c r="Q30" s="196"/>
-      <c r="R30" s="196"/>
-      <c r="S30" s="196"/>
-      <c r="T30" s="196"/>
-      <c r="U30" s="196"/>
-      <c r="V30" s="196"/>
-      <c r="W30" s="196"/>
-      <c r="X30" s="196"/>
-      <c r="Y30" s="196"/>
-      <c r="Z30" s="196"/>
-      <c r="AA30" s="196"/>
-      <c r="AB30" s="196"/>
-      <c r="AC30" s="196"/>
-      <c r="AD30" s="196"/>
-      <c r="AE30" s="196"/>
-      <c r="AF30" s="196"/>
-      <c r="AG30" s="196"/>
-      <c r="AH30" s="197"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="176"/>
+      <c r="R30" s="176"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="176"/>
+      <c r="X30" s="176"/>
+      <c r="Y30" s="176"/>
+      <c r="Z30" s="176"/>
+      <c r="AA30" s="176"/>
+      <c r="AB30" s="176"/>
+      <c r="AC30" s="176"/>
+      <c r="AD30" s="176"/>
+      <c r="AE30" s="176"/>
+      <c r="AF30" s="176"/>
+      <c r="AG30" s="176"/>
+      <c r="AH30" s="177"/>
     </row>
     <row r="31" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="195"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="196"/>
-      <c r="M31" s="196"/>
-      <c r="N31" s="196"/>
-      <c r="O31" s="196"/>
-      <c r="P31" s="196"/>
-      <c r="Q31" s="196"/>
-      <c r="R31" s="196"/>
-      <c r="S31" s="196"/>
-      <c r="T31" s="196"/>
-      <c r="U31" s="196"/>
-      <c r="V31" s="196"/>
-      <c r="W31" s="196"/>
-      <c r="X31" s="196"/>
-      <c r="Y31" s="196"/>
-      <c r="Z31" s="196"/>
-      <c r="AA31" s="196"/>
-      <c r="AB31" s="196"/>
-      <c r="AC31" s="196"/>
-      <c r="AD31" s="196"/>
-      <c r="AE31" s="196"/>
-      <c r="AF31" s="196"/>
-      <c r="AG31" s="196"/>
-      <c r="AH31" s="197"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="176"/>
+      <c r="O31" s="176"/>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="176"/>
+      <c r="R31" s="176"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
+      <c r="U31" s="176"/>
+      <c r="V31" s="176"/>
+      <c r="W31" s="176"/>
+      <c r="X31" s="176"/>
+      <c r="Y31" s="176"/>
+      <c r="Z31" s="176"/>
+      <c r="AA31" s="176"/>
+      <c r="AB31" s="176"/>
+      <c r="AC31" s="176"/>
+      <c r="AD31" s="176"/>
+      <c r="AE31" s="176"/>
+      <c r="AF31" s="176"/>
+      <c r="AG31" s="176"/>
+      <c r="AH31" s="177"/>
     </row>
     <row r="32" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="205"/>
-      <c r="C32" s="206"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="206"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="206"/>
-      <c r="J32" s="206"/>
-      <c r="K32" s="206"/>
-      <c r="L32" s="206"/>
-      <c r="M32" s="206"/>
-      <c r="N32" s="206"/>
-      <c r="O32" s="206"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="206"/>
-      <c r="R32" s="206"/>
-      <c r="S32" s="206"/>
-      <c r="T32" s="206"/>
-      <c r="U32" s="206"/>
-      <c r="V32" s="206"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="206"/>
-      <c r="Y32" s="206"/>
-      <c r="Z32" s="206"/>
-      <c r="AA32" s="206"/>
-      <c r="AB32" s="206"/>
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="206"/>
-      <c r="AE32" s="206"/>
-      <c r="AF32" s="206"/>
-      <c r="AG32" s="206"/>
-      <c r="AH32" s="207"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="182"/>
+      <c r="Y32" s="182"/>
+      <c r="Z32" s="182"/>
+      <c r="AA32" s="182"/>
+      <c r="AB32" s="182"/>
+      <c r="AC32" s="182"/>
+      <c r="AD32" s="182"/>
+      <c r="AE32" s="182"/>
+      <c r="AF32" s="182"/>
+      <c r="AG32" s="182"/>
+      <c r="AH32" s="183"/>
     </row>
     <row r="33" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="136" t="s">
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="188"/>
+      <c r="S33" s="188"/>
+      <c r="T33" s="189"/>
+      <c r="U33" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="101"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="102"/>
+    </row>
+    <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="188"/>
+      <c r="N34" s="188"/>
+      <c r="O34" s="188"/>
+      <c r="P34" s="188"/>
+      <c r="Q34" s="188"/>
+      <c r="R34" s="188"/>
+      <c r="S34" s="188"/>
+      <c r="T34" s="188"/>
+      <c r="U34" s="188"/>
+      <c r="V34" s="188"/>
+      <c r="W34" s="188"/>
+      <c r="X34" s="188"/>
+      <c r="Y34" s="188"/>
+      <c r="Z34" s="188"/>
+      <c r="AA34" s="188"/>
+      <c r="AB34" s="188"/>
+      <c r="AC34" s="188"/>
+      <c r="AD34" s="188"/>
+      <c r="AE34" s="188"/>
+      <c r="AF34" s="188"/>
+      <c r="AG34" s="188"/>
+      <c r="AH34" s="189"/>
+    </row>
+    <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="138"/>
-      <c r="Q33" s="162" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="163"/>
-      <c r="S33" s="163"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="136" t="s">
+      <c r="K35" s="189"/>
+      <c r="L35" s="187" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="188"/>
+      <c r="N35" s="189"/>
+      <c r="O35" s="187" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="189"/>
+      <c r="Q35" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" s="188"/>
+      <c r="S35" s="188"/>
+      <c r="T35" s="188"/>
+      <c r="U35" s="188"/>
+      <c r="V35" s="188"/>
+      <c r="W35" s="188"/>
+      <c r="X35" s="188"/>
+      <c r="Y35" s="188"/>
+      <c r="Z35" s="188"/>
+      <c r="AA35" s="188"/>
+      <c r="AB35" s="188"/>
+      <c r="AC35" s="188"/>
+      <c r="AD35" s="188"/>
+      <c r="AE35" s="188"/>
+      <c r="AF35" s="188"/>
+      <c r="AG35" s="188"/>
+      <c r="AH35" s="189"/>
+    </row>
+    <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="137"/>
-      <c r="AF33" s="137"/>
-      <c r="AG33" s="137"/>
-      <c r="AH33" s="138"/>
-    </row>
-    <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="163"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="163"/>
-      <c r="S34" s="163"/>
-      <c r="T34" s="163"/>
-      <c r="U34" s="163"/>
-      <c r="V34" s="163"/>
-      <c r="W34" s="163"/>
-      <c r="X34" s="163"/>
-      <c r="Y34" s="163"/>
-      <c r="Z34" s="163"/>
-      <c r="AA34" s="163"/>
-      <c r="AB34" s="163"/>
-      <c r="AC34" s="163"/>
-      <c r="AD34" s="163"/>
-      <c r="AE34" s="163"/>
-      <c r="AF34" s="163"/>
-      <c r="AG34" s="163"/>
-      <c r="AH34" s="164"/>
-    </row>
-    <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="162" t="s">
+      <c r="K36" s="102"/>
+      <c r="L36" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="164"/>
-      <c r="L35" s="162" t="s">
+      <c r="M36" s="101"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="194" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="195"/>
+      <c r="Q36" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="101"/>
+      <c r="AB36" s="101"/>
+      <c r="AC36" s="101"/>
+      <c r="AD36" s="101"/>
+      <c r="AE36" s="101"/>
+      <c r="AF36" s="101"/>
+      <c r="AG36" s="101"/>
+      <c r="AH36" s="102"/>
+    </row>
+    <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="102"/>
+      <c r="L37" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="101"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="194" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" s="195"/>
+      <c r="Q37" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="101"/>
+      <c r="AA37" s="101"/>
+      <c r="AB37" s="101"/>
+      <c r="AC37" s="101"/>
+      <c r="AD37" s="101"/>
+      <c r="AE37" s="101"/>
+      <c r="AF37" s="101"/>
+      <c r="AG37" s="101"/>
+      <c r="AH37" s="102"/>
+    </row>
+    <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="102"/>
+      <c r="L38" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="101"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="194" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" s="195"/>
+      <c r="Q38" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="101"/>
+      <c r="AA38" s="101"/>
+      <c r="AB38" s="101"/>
+      <c r="AC38" s="101"/>
+      <c r="AD38" s="101"/>
+      <c r="AE38" s="101"/>
+      <c r="AF38" s="101"/>
+      <c r="AG38" s="101"/>
+      <c r="AH38" s="102"/>
+    </row>
+    <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="163"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="162" t="s">
-        <v>19</v>
-      </c>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="R35" s="163"/>
-      <c r="S35" s="163"/>
-      <c r="T35" s="163"/>
-      <c r="U35" s="163"/>
-      <c r="V35" s="163"/>
-      <c r="W35" s="163"/>
-      <c r="X35" s="163"/>
-      <c r="Y35" s="163"/>
-      <c r="Z35" s="163"/>
-      <c r="AA35" s="163"/>
-      <c r="AB35" s="163"/>
-      <c r="AC35" s="163"/>
-      <c r="AD35" s="163"/>
-      <c r="AE35" s="163"/>
-      <c r="AF35" s="163"/>
-      <c r="AG35" s="163"/>
-      <c r="AH35" s="164"/>
-    </row>
-    <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="138"/>
-      <c r="L36" s="136" t="s">
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="188"/>
+      <c r="Q39" s="188"/>
+      <c r="R39" s="188"/>
+      <c r="S39" s="188"/>
+      <c r="T39" s="188"/>
+      <c r="U39" s="188"/>
+      <c r="V39" s="188"/>
+      <c r="W39" s="188"/>
+      <c r="X39" s="188"/>
+      <c r="Y39" s="188"/>
+      <c r="Z39" s="188"/>
+      <c r="AA39" s="188"/>
+      <c r="AB39" s="188"/>
+      <c r="AC39" s="188"/>
+      <c r="AD39" s="188"/>
+      <c r="AE39" s="188"/>
+      <c r="AF39" s="188"/>
+      <c r="AG39" s="188"/>
+      <c r="AH39" s="189"/>
+    </row>
+    <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="187" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="137"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="189" t="s">
-        <v>74</v>
-      </c>
-      <c r="P36" s="190"/>
-      <c r="Q36" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" s="137"/>
-      <c r="S36" s="137"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="137"/>
-      <c r="V36" s="137"/>
-      <c r="W36" s="137"/>
-      <c r="X36" s="137"/>
-      <c r="Y36" s="137"/>
-      <c r="Z36" s="137"/>
-      <c r="AA36" s="137"/>
-      <c r="AB36" s="137"/>
-      <c r="AC36" s="137"/>
-      <c r="AD36" s="137"/>
-      <c r="AE36" s="137"/>
-      <c r="AF36" s="137"/>
-      <c r="AG36" s="137"/>
-      <c r="AH36" s="138"/>
-    </row>
-    <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="138"/>
-      <c r="L37" s="136" t="s">
+      <c r="K40" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="137"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="189" t="s">
-        <v>74</v>
-      </c>
-      <c r="P37" s="190"/>
-      <c r="Q37" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="R37" s="137"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="137"/>
-      <c r="V37" s="137"/>
-      <c r="W37" s="137"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="137"/>
-      <c r="AA37" s="137"/>
-      <c r="AB37" s="137"/>
-      <c r="AC37" s="137"/>
-      <c r="AD37" s="137"/>
-      <c r="AE37" s="137"/>
-      <c r="AF37" s="137"/>
-      <c r="AG37" s="137"/>
-      <c r="AH37" s="138"/>
-    </row>
-    <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="136" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38" s="138"/>
-      <c r="L38" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="137"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="189" t="s">
-        <v>99</v>
-      </c>
-      <c r="P38" s="190"/>
-      <c r="Q38" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="R38" s="137"/>
-      <c r="S38" s="137"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="137"/>
-      <c r="V38" s="137"/>
-      <c r="W38" s="137"/>
-      <c r="X38" s="137"/>
-      <c r="Y38" s="137"/>
-      <c r="Z38" s="137"/>
-      <c r="AA38" s="137"/>
-      <c r="AB38" s="137"/>
-      <c r="AC38" s="137"/>
-      <c r="AD38" s="137"/>
-      <c r="AE38" s="137"/>
-      <c r="AF38" s="137"/>
-      <c r="AG38" s="137"/>
-      <c r="AH38" s="138"/>
-    </row>
-    <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="163"/>
-      <c r="Q39" s="163"/>
-      <c r="R39" s="163"/>
-      <c r="S39" s="163"/>
-      <c r="T39" s="163"/>
-      <c r="U39" s="163"/>
-      <c r="V39" s="163"/>
-      <c r="W39" s="163"/>
-      <c r="X39" s="163"/>
-      <c r="Y39" s="163"/>
-      <c r="Z39" s="163"/>
-      <c r="AA39" s="163"/>
-      <c r="AB39" s="163"/>
-      <c r="AC39" s="163"/>
-      <c r="AD39" s="163"/>
-      <c r="AE39" s="163"/>
-      <c r="AF39" s="163"/>
-      <c r="AG39" s="163"/>
-      <c r="AH39" s="164"/>
-    </row>
-    <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="162" t="s">
+      <c r="L40" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="L40" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="M40" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="N40" s="162" t="s">
+      <c r="O40" s="188"/>
+      <c r="P40" s="188"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="188"/>
+      <c r="S40" s="188"/>
+      <c r="T40" s="188"/>
+      <c r="U40" s="188"/>
+      <c r="V40" s="188"/>
+      <c r="W40" s="188"/>
+      <c r="X40" s="188"/>
+      <c r="Y40" s="188"/>
+      <c r="Z40" s="188"/>
+      <c r="AA40" s="188"/>
+      <c r="AB40" s="188"/>
+      <c r="AC40" s="188"/>
+      <c r="AD40" s="188"/>
+      <c r="AE40" s="188"/>
+      <c r="AF40" s="188"/>
+      <c r="AG40" s="188"/>
+      <c r="AH40" s="189"/>
+    </row>
+    <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="198" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" s="100"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="101"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="101"/>
+      <c r="Z41" s="101"/>
+      <c r="AA41" s="101"/>
+      <c r="AB41" s="101"/>
+      <c r="AC41" s="101"/>
+      <c r="AD41" s="101"/>
+      <c r="AE41" s="101"/>
+      <c r="AF41" s="101"/>
+      <c r="AG41" s="101"/>
+      <c r="AH41" s="102"/>
+    </row>
+    <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="O40" s="163"/>
-      <c r="P40" s="163"/>
-      <c r="Q40" s="163"/>
-      <c r="R40" s="163"/>
-      <c r="S40" s="163"/>
-      <c r="T40" s="163"/>
-      <c r="U40" s="163"/>
-      <c r="V40" s="163"/>
-      <c r="W40" s="163"/>
-      <c r="X40" s="163"/>
-      <c r="Y40" s="163"/>
-      <c r="Z40" s="163"/>
-      <c r="AA40" s="163"/>
-      <c r="AB40" s="163"/>
-      <c r="AC40" s="163"/>
-      <c r="AD40" s="163"/>
-      <c r="AE40" s="163"/>
-      <c r="AF40" s="163"/>
-      <c r="AG40" s="163"/>
-      <c r="AH40" s="164"/>
-    </row>
-    <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="191" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="191"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="M41" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="N41" s="136"/>
-      <c r="O41" s="137"/>
-      <c r="P41" s="137"/>
-      <c r="Q41" s="137"/>
-      <c r="R41" s="137"/>
-      <c r="S41" s="137"/>
-      <c r="T41" s="137"/>
-      <c r="U41" s="137"/>
-      <c r="V41" s="137"/>
-      <c r="W41" s="137"/>
-      <c r="X41" s="137"/>
-      <c r="Y41" s="137"/>
-      <c r="Z41" s="137"/>
-      <c r="AA41" s="137"/>
-      <c r="AB41" s="137"/>
-      <c r="AC41" s="137"/>
-      <c r="AD41" s="137"/>
-      <c r="AE41" s="137"/>
-      <c r="AF41" s="137"/>
-      <c r="AG41" s="137"/>
-      <c r="AH41" s="138"/>
-    </row>
-    <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="191" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="191"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
       <c r="J42" s="90" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K42" s="90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L42" s="90" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M42" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="N42" s="136"/>
-      <c r="O42" s="137"/>
-      <c r="P42" s="137"/>
-      <c r="Q42" s="137"/>
-      <c r="R42" s="137"/>
-      <c r="S42" s="137"/>
-      <c r="T42" s="137"/>
-      <c r="U42" s="137"/>
-      <c r="V42" s="137"/>
-      <c r="W42" s="137"/>
-      <c r="X42" s="137"/>
-      <c r="Y42" s="137"/>
-      <c r="Z42" s="137"/>
-      <c r="AA42" s="137"/>
-      <c r="AB42" s="137"/>
-      <c r="AC42" s="137"/>
-      <c r="AD42" s="137"/>
-      <c r="AE42" s="137"/>
-      <c r="AF42" s="137"/>
-      <c r="AG42" s="137"/>
-      <c r="AH42" s="138"/>
+        <v>95</v>
+      </c>
+      <c r="N42" s="100"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="101"/>
+      <c r="AA42" s="101"/>
+      <c r="AB42" s="101"/>
+      <c r="AC42" s="101"/>
+      <c r="AD42" s="101"/>
+      <c r="AE42" s="101"/>
+      <c r="AF42" s="101"/>
+      <c r="AG42" s="101"/>
+      <c r="AH42" s="102"/>
     </row>
     <row r="43" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="187" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="188"/>
+      <c r="K43" s="188"/>
+      <c r="L43" s="188"/>
+      <c r="M43" s="188"/>
+      <c r="N43" s="188"/>
+      <c r="O43" s="188"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="188"/>
+      <c r="R43" s="188"/>
+      <c r="S43" s="188"/>
+      <c r="T43" s="188"/>
+      <c r="U43" s="188"/>
+      <c r="V43" s="188"/>
+      <c r="W43" s="188"/>
+      <c r="X43" s="188"/>
+      <c r="Y43" s="188"/>
+      <c r="Z43" s="188"/>
+      <c r="AA43" s="188"/>
+      <c r="AB43" s="188"/>
+      <c r="AC43" s="188"/>
+      <c r="AD43" s="188"/>
+      <c r="AE43" s="188"/>
+      <c r="AF43" s="188"/>
+      <c r="AG43" s="188"/>
+      <c r="AH43" s="189"/>
+    </row>
+    <row r="44" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="197" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="189"/>
+      <c r="D44" s="187" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="189"/>
+      <c r="K44" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="163"/>
-      <c r="O43" s="163"/>
-      <c r="P43" s="163"/>
-      <c r="Q43" s="163"/>
-      <c r="R43" s="163"/>
-      <c r="S43" s="163"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="163"/>
-      <c r="V43" s="163"/>
-      <c r="W43" s="163"/>
-      <c r="X43" s="163"/>
-      <c r="Y43" s="163"/>
-      <c r="Z43" s="163"/>
-      <c r="AA43" s="163"/>
-      <c r="AB43" s="163"/>
-      <c r="AC43" s="163"/>
-      <c r="AD43" s="163"/>
-      <c r="AE43" s="163"/>
-      <c r="AF43" s="163"/>
-      <c r="AG43" s="163"/>
-      <c r="AH43" s="164"/>
-    </row>
-    <row r="44" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="165" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="164"/>
-      <c r="D44" s="162" t="s">
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="188"/>
+      <c r="O44" s="189"/>
+      <c r="P44" s="187" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q44" s="188"/>
+      <c r="R44" s="189"/>
+      <c r="S44" s="187" t="s">
+        <v>59</v>
+      </c>
+      <c r="T44" s="188"/>
+      <c r="U44" s="188"/>
+      <c r="V44" s="188"/>
+      <c r="W44" s="189"/>
+      <c r="X44" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="L44" s="163"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="162" t="s">
+      <c r="Y44" s="188"/>
+      <c r="Z44" s="188"/>
+      <c r="AA44" s="188"/>
+      <c r="AB44" s="188"/>
+      <c r="AC44" s="188"/>
+      <c r="AD44" s="188"/>
+      <c r="AE44" s="188"/>
+      <c r="AF44" s="188"/>
+      <c r="AG44" s="188"/>
+      <c r="AH44" s="189"/>
+    </row>
+    <row r="45" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="219">
+        <v>1</v>
+      </c>
+      <c r="C45" s="220"/>
+      <c r="D45" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="Q44" s="163"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="162" t="s">
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="T44" s="163"/>
-      <c r="U44" s="163"/>
-      <c r="V44" s="163"/>
-      <c r="W44" s="164"/>
-      <c r="X44" s="162" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y44" s="163"/>
-      <c r="Z44" s="163"/>
-      <c r="AA44" s="163"/>
-      <c r="AB44" s="163"/>
-      <c r="AC44" s="163"/>
-      <c r="AD44" s="163"/>
-      <c r="AE44" s="163"/>
-      <c r="AF44" s="163"/>
-      <c r="AG44" s="163"/>
-      <c r="AH44" s="164"/>
-    </row>
-    <row r="45" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="167">
-        <v>1</v>
-      </c>
-      <c r="C45" s="168"/>
-      <c r="D45" s="139" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="139" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q45" s="140"/>
-      <c r="R45" s="141"/>
-      <c r="S45" s="139" t="s">
-        <v>63</v>
-      </c>
-      <c r="T45" s="140"/>
-      <c r="U45" s="140"/>
-      <c r="V45" s="140"/>
-      <c r="W45" s="141"/>
-      <c r="X45" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y45" s="140"/>
-      <c r="Z45" s="140"/>
-      <c r="AA45" s="140"/>
-      <c r="AB45" s="140"/>
-      <c r="AC45" s="140"/>
-      <c r="AD45" s="140"/>
-      <c r="AE45" s="140"/>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="140"/>
-      <c r="AH45" s="141"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="104"/>
+      <c r="AG45" s="104"/>
+      <c r="AH45" s="105"/>
       <c r="AI45" s="20"/>
     </row>
     <row r="46" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10966,47 +11248,47 @@
       <c r="AJ52" s="19"/>
     </row>
     <row r="53" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="169" t="s">
+      <c r="B53" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="170"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="170"/>
-      <c r="O53" s="170"/>
-      <c r="P53" s="170"/>
-      <c r="Q53" s="170"/>
-      <c r="R53" s="170"/>
-      <c r="S53" s="170"/>
-      <c r="T53" s="170"/>
-      <c r="U53" s="170"/>
-      <c r="V53" s="170"/>
-      <c r="W53" s="170"/>
-      <c r="X53" s="166"/>
-      <c r="Y53" s="169" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z53" s="170"/>
-      <c r="AA53" s="166"/>
-      <c r="AB53" s="169" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC53" s="170"/>
-      <c r="AD53" s="170"/>
-      <c r="AE53" s="170"/>
-      <c r="AF53" s="166"/>
-      <c r="AG53" s="165" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH53" s="166"/>
+      <c r="C53" s="222"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="222"/>
+      <c r="G53" s="222"/>
+      <c r="H53" s="222"/>
+      <c r="I53" s="222"/>
+      <c r="J53" s="222"/>
+      <c r="K53" s="222"/>
+      <c r="L53" s="222"/>
+      <c r="M53" s="222"/>
+      <c r="N53" s="222"/>
+      <c r="O53" s="222"/>
+      <c r="P53" s="222"/>
+      <c r="Q53" s="222"/>
+      <c r="R53" s="222"/>
+      <c r="S53" s="222"/>
+      <c r="T53" s="222"/>
+      <c r="U53" s="222"/>
+      <c r="V53" s="222"/>
+      <c r="W53" s="222"/>
+      <c r="X53" s="218"/>
+      <c r="Y53" s="221" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z53" s="222"/>
+      <c r="AA53" s="218"/>
+      <c r="AB53" s="221" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC53" s="222"/>
+      <c r="AD53" s="222"/>
+      <c r="AE53" s="222"/>
+      <c r="AF53" s="218"/>
+      <c r="AG53" s="197" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH53" s="218"/>
       <c r="AI53" s="21"/>
       <c r="AJ53" s="21"/>
       <c r="AK53" s="21"/>
@@ -11035,20 +11317,20 @@
       <c r="V54" s="81"/>
       <c r="W54" s="81"/>
       <c r="X54" s="81"/>
-      <c r="Y54" s="192"/>
-      <c r="Z54" s="193"/>
-      <c r="AA54" s="194"/>
-      <c r="AB54" s="192"/>
-      <c r="AC54" s="193"/>
-      <c r="AD54" s="193"/>
-      <c r="AE54" s="193"/>
-      <c r="AF54" s="194"/>
-      <c r="AG54" s="208"/>
-      <c r="AH54" s="209"/>
+      <c r="Y54" s="178"/>
+      <c r="Z54" s="179"/>
+      <c r="AA54" s="180"/>
+      <c r="AB54" s="178"/>
+      <c r="AC54" s="179"/>
+      <c r="AD54" s="179"/>
+      <c r="AE54" s="179"/>
+      <c r="AF54" s="180"/>
+      <c r="AG54" s="171"/>
+      <c r="AH54" s="172"/>
     </row>
     <row r="55" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C55" s="83"/>
       <c r="D55" s="83"/>
@@ -11072,21 +11354,21 @@
       <c r="V55" s="83"/>
       <c r="W55" s="83"/>
       <c r="X55" s="83"/>
-      <c r="Y55" s="195"/>
-      <c r="Z55" s="196"/>
-      <c r="AA55" s="197"/>
-      <c r="AB55" s="195"/>
-      <c r="AC55" s="196"/>
-      <c r="AD55" s="196"/>
-      <c r="AE55" s="196"/>
-      <c r="AF55" s="197"/>
-      <c r="AG55" s="210"/>
-      <c r="AH55" s="211"/>
+      <c r="Y55" s="175"/>
+      <c r="Z55" s="176"/>
+      <c r="AA55" s="177"/>
+      <c r="AB55" s="175"/>
+      <c r="AC55" s="176"/>
+      <c r="AD55" s="176"/>
+      <c r="AE55" s="176"/>
+      <c r="AF55" s="177"/>
+      <c r="AG55" s="169"/>
+      <c r="AH55" s="170"/>
     </row>
     <row r="56" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="82"/>
       <c r="C56" s="88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56" s="83"/>
       <c r="E56" s="83"/>
@@ -11109,23 +11391,23 @@
       <c r="V56" s="83"/>
       <c r="W56" s="83"/>
       <c r="X56" s="83"/>
-      <c r="Y56" s="195"/>
-      <c r="Z56" s="196"/>
-      <c r="AA56" s="197"/>
-      <c r="AB56" s="195"/>
-      <c r="AC56" s="196"/>
-      <c r="AD56" s="196"/>
-      <c r="AE56" s="196"/>
-      <c r="AF56" s="197"/>
-      <c r="AG56" s="212" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH56" s="213"/>
+      <c r="Y56" s="175"/>
+      <c r="Z56" s="176"/>
+      <c r="AA56" s="177"/>
+      <c r="AB56" s="175"/>
+      <c r="AC56" s="176"/>
+      <c r="AD56" s="176"/>
+      <c r="AE56" s="176"/>
+      <c r="AF56" s="177"/>
+      <c r="AG56" s="173" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH56" s="174"/>
     </row>
     <row r="57" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="82"/>
       <c r="C57" s="88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D57" s="83"/>
       <c r="E57" s="83"/>
@@ -11148,16 +11430,16 @@
       <c r="V57" s="83"/>
       <c r="W57" s="83"/>
       <c r="X57" s="83"/>
-      <c r="Y57" s="195"/>
-      <c r="Z57" s="196"/>
-      <c r="AA57" s="197"/>
-      <c r="AB57" s="195"/>
-      <c r="AC57" s="196"/>
-      <c r="AD57" s="196"/>
-      <c r="AE57" s="196"/>
-      <c r="AF57" s="197"/>
-      <c r="AG57" s="212"/>
-      <c r="AH57" s="213"/>
+      <c r="Y57" s="175"/>
+      <c r="Z57" s="176"/>
+      <c r="AA57" s="177"/>
+      <c r="AB57" s="175"/>
+      <c r="AC57" s="176"/>
+      <c r="AD57" s="176"/>
+      <c r="AE57" s="176"/>
+      <c r="AF57" s="177"/>
+      <c r="AG57" s="173"/>
+      <c r="AH57" s="174"/>
     </row>
     <row r="58" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="82"/>
@@ -11183,20 +11465,20 @@
       <c r="V58" s="83"/>
       <c r="W58" s="83"/>
       <c r="X58" s="83"/>
-      <c r="Y58" s="195"/>
-      <c r="Z58" s="196"/>
-      <c r="AA58" s="197"/>
-      <c r="AB58" s="195"/>
-      <c r="AC58" s="196"/>
-      <c r="AD58" s="196"/>
-      <c r="AE58" s="196"/>
-      <c r="AF58" s="197"/>
-      <c r="AG58" s="210"/>
-      <c r="AH58" s="211"/>
+      <c r="Y58" s="175"/>
+      <c r="Z58" s="176"/>
+      <c r="AA58" s="177"/>
+      <c r="AB58" s="175"/>
+      <c r="AC58" s="176"/>
+      <c r="AD58" s="176"/>
+      <c r="AE58" s="176"/>
+      <c r="AF58" s="177"/>
+      <c r="AG58" s="169"/>
+      <c r="AH58" s="170"/>
     </row>
     <row r="59" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C59" s="83"/>
       <c r="D59" s="83"/>
@@ -11220,21 +11502,21 @@
       <c r="V59" s="83"/>
       <c r="W59" s="83"/>
       <c r="X59" s="83"/>
-      <c r="Y59" s="195"/>
-      <c r="Z59" s="196"/>
-      <c r="AA59" s="197"/>
-      <c r="AB59" s="195"/>
-      <c r="AC59" s="196"/>
-      <c r="AD59" s="196"/>
-      <c r="AE59" s="196"/>
-      <c r="AF59" s="197"/>
-      <c r="AG59" s="210"/>
-      <c r="AH59" s="211"/>
+      <c r="Y59" s="175"/>
+      <c r="Z59" s="176"/>
+      <c r="AA59" s="177"/>
+      <c r="AB59" s="175"/>
+      <c r="AC59" s="176"/>
+      <c r="AD59" s="176"/>
+      <c r="AE59" s="176"/>
+      <c r="AF59" s="177"/>
+      <c r="AG59" s="169"/>
+      <c r="AH59" s="170"/>
     </row>
     <row r="60" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="82"/>
       <c r="C60" s="88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60" s="83"/>
       <c r="E60" s="83"/>
@@ -11257,21 +11539,21 @@
       <c r="V60" s="83"/>
       <c r="W60" s="83"/>
       <c r="X60" s="83"/>
-      <c r="Y60" s="195"/>
-      <c r="Z60" s="196"/>
-      <c r="AA60" s="197"/>
-      <c r="AB60" s="195"/>
-      <c r="AC60" s="196"/>
-      <c r="AD60" s="196"/>
-      <c r="AE60" s="196"/>
-      <c r="AF60" s="197"/>
-      <c r="AG60" s="210"/>
-      <c r="AH60" s="211"/>
+      <c r="Y60" s="175"/>
+      <c r="Z60" s="176"/>
+      <c r="AA60" s="177"/>
+      <c r="AB60" s="175"/>
+      <c r="AC60" s="176"/>
+      <c r="AD60" s="176"/>
+      <c r="AE60" s="176"/>
+      <c r="AF60" s="177"/>
+      <c r="AG60" s="169"/>
+      <c r="AH60" s="170"/>
     </row>
     <row r="61" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="82"/>
       <c r="C61" s="88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61" s="83"/>
       <c r="E61" s="83"/>
@@ -11294,21 +11576,21 @@
       <c r="V61" s="83"/>
       <c r="W61" s="83"/>
       <c r="X61" s="83"/>
-      <c r="Y61" s="195"/>
-      <c r="Z61" s="196"/>
-      <c r="AA61" s="197"/>
-      <c r="AB61" s="195"/>
-      <c r="AC61" s="196"/>
-      <c r="AD61" s="196"/>
-      <c r="AE61" s="196"/>
-      <c r="AF61" s="197"/>
-      <c r="AG61" s="210"/>
-      <c r="AH61" s="211"/>
+      <c r="Y61" s="175"/>
+      <c r="Z61" s="176"/>
+      <c r="AA61" s="177"/>
+      <c r="AB61" s="175"/>
+      <c r="AC61" s="176"/>
+      <c r="AD61" s="176"/>
+      <c r="AE61" s="176"/>
+      <c r="AF61" s="177"/>
+      <c r="AG61" s="169"/>
+      <c r="AH61" s="170"/>
     </row>
     <row r="62" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="82"/>
       <c r="D62" s="83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E62" s="83"/>
       <c r="F62" s="83"/>
@@ -11330,21 +11612,21 @@
       <c r="V62" s="83"/>
       <c r="W62" s="83"/>
       <c r="X62" s="83"/>
-      <c r="Y62" s="195"/>
-      <c r="Z62" s="196"/>
-      <c r="AA62" s="197"/>
-      <c r="AB62" s="195"/>
-      <c r="AC62" s="196"/>
-      <c r="AD62" s="196"/>
-      <c r="AE62" s="196"/>
-      <c r="AF62" s="197"/>
-      <c r="AG62" s="210"/>
-      <c r="AH62" s="211"/>
+      <c r="Y62" s="175"/>
+      <c r="Z62" s="176"/>
+      <c r="AA62" s="177"/>
+      <c r="AB62" s="175"/>
+      <c r="AC62" s="176"/>
+      <c r="AD62" s="176"/>
+      <c r="AE62" s="176"/>
+      <c r="AF62" s="177"/>
+      <c r="AG62" s="169"/>
+      <c r="AH62" s="170"/>
     </row>
     <row r="63" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="82"/>
       <c r="D63" s="83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E63" s="83"/>
       <c r="F63" s="83"/>
@@ -11366,16 +11648,16 @@
       <c r="V63" s="83"/>
       <c r="W63" s="83"/>
       <c r="X63" s="83"/>
-      <c r="Y63" s="195"/>
-      <c r="Z63" s="196"/>
-      <c r="AA63" s="197"/>
-      <c r="AB63" s="195"/>
-      <c r="AC63" s="196"/>
-      <c r="AD63" s="196"/>
-      <c r="AE63" s="196"/>
-      <c r="AF63" s="197"/>
-      <c r="AG63" s="210"/>
-      <c r="AH63" s="211"/>
+      <c r="Y63" s="175"/>
+      <c r="Z63" s="176"/>
+      <c r="AA63" s="177"/>
+      <c r="AB63" s="175"/>
+      <c r="AC63" s="176"/>
+      <c r="AD63" s="176"/>
+      <c r="AE63" s="176"/>
+      <c r="AF63" s="177"/>
+      <c r="AG63" s="169"/>
+      <c r="AH63" s="170"/>
     </row>
     <row r="64" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="82"/>
@@ -11400,16 +11682,16 @@
       <c r="V64" s="83"/>
       <c r="W64" s="83"/>
       <c r="X64" s="83"/>
-      <c r="Y64" s="195"/>
-      <c r="Z64" s="196"/>
-      <c r="AA64" s="197"/>
-      <c r="AB64" s="195"/>
-      <c r="AC64" s="196"/>
-      <c r="AD64" s="196"/>
-      <c r="AE64" s="196"/>
-      <c r="AF64" s="197"/>
-      <c r="AG64" s="210"/>
-      <c r="AH64" s="211"/>
+      <c r="Y64" s="175"/>
+      <c r="Z64" s="176"/>
+      <c r="AA64" s="177"/>
+      <c r="AB64" s="175"/>
+      <c r="AC64" s="176"/>
+      <c r="AD64" s="176"/>
+      <c r="AE64" s="176"/>
+      <c r="AF64" s="177"/>
+      <c r="AG64" s="169"/>
+      <c r="AH64" s="170"/>
     </row>
     <row r="65" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="82"/>
@@ -11436,16 +11718,16 @@
       <c r="V65" s="83"/>
       <c r="W65" s="83"/>
       <c r="X65" s="83"/>
-      <c r="Y65" s="195"/>
-      <c r="Z65" s="196"/>
-      <c r="AA65" s="197"/>
-      <c r="AB65" s="195"/>
-      <c r="AC65" s="196"/>
-      <c r="AD65" s="196"/>
-      <c r="AE65" s="196"/>
-      <c r="AF65" s="197"/>
-      <c r="AG65" s="210"/>
-      <c r="AH65" s="211"/>
+      <c r="Y65" s="175"/>
+      <c r="Z65" s="176"/>
+      <c r="AA65" s="177"/>
+      <c r="AB65" s="175"/>
+      <c r="AC65" s="176"/>
+      <c r="AD65" s="176"/>
+      <c r="AE65" s="176"/>
+      <c r="AF65" s="177"/>
+      <c r="AG65" s="169"/>
+      <c r="AH65" s="170"/>
     </row>
     <row r="66" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="82"/>
@@ -11472,16 +11754,16 @@
       <c r="V66" s="83"/>
       <c r="W66" s="83"/>
       <c r="X66" s="83"/>
-      <c r="Y66" s="195"/>
-      <c r="Z66" s="196"/>
-      <c r="AA66" s="197"/>
-      <c r="AB66" s="195"/>
-      <c r="AC66" s="196"/>
-      <c r="AD66" s="196"/>
-      <c r="AE66" s="196"/>
-      <c r="AF66" s="197"/>
-      <c r="AG66" s="210"/>
-      <c r="AH66" s="211"/>
+      <c r="Y66" s="175"/>
+      <c r="Z66" s="176"/>
+      <c r="AA66" s="177"/>
+      <c r="AB66" s="175"/>
+      <c r="AC66" s="176"/>
+      <c r="AD66" s="176"/>
+      <c r="AE66" s="176"/>
+      <c r="AF66" s="177"/>
+      <c r="AG66" s="169"/>
+      <c r="AH66" s="170"/>
     </row>
     <row r="67" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="82"/>
@@ -11506,16 +11788,16 @@
       <c r="V67" s="83"/>
       <c r="W67" s="83"/>
       <c r="X67" s="83"/>
-      <c r="Y67" s="195"/>
-      <c r="Z67" s="196"/>
-      <c r="AA67" s="197"/>
-      <c r="AB67" s="195"/>
-      <c r="AC67" s="196"/>
-      <c r="AD67" s="196"/>
-      <c r="AE67" s="196"/>
-      <c r="AF67" s="197"/>
-      <c r="AG67" s="210"/>
-      <c r="AH67" s="211"/>
+      <c r="Y67" s="175"/>
+      <c r="Z67" s="176"/>
+      <c r="AA67" s="177"/>
+      <c r="AB67" s="175"/>
+      <c r="AC67" s="176"/>
+      <c r="AD67" s="176"/>
+      <c r="AE67" s="176"/>
+      <c r="AF67" s="177"/>
+      <c r="AG67" s="169"/>
+      <c r="AH67" s="170"/>
     </row>
     <row r="68" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="82"/>
@@ -11542,16 +11824,16 @@
       <c r="V68" s="83"/>
       <c r="W68" s="83"/>
       <c r="X68" s="83"/>
-      <c r="Y68" s="195"/>
-      <c r="Z68" s="196"/>
-      <c r="AA68" s="197"/>
-      <c r="AB68" s="195"/>
-      <c r="AC68" s="196"/>
-      <c r="AD68" s="196"/>
-      <c r="AE68" s="196"/>
-      <c r="AF68" s="197"/>
-      <c r="AG68" s="210"/>
-      <c r="AH68" s="211"/>
+      <c r="Y68" s="175"/>
+      <c r="Z68" s="176"/>
+      <c r="AA68" s="177"/>
+      <c r="AB68" s="175"/>
+      <c r="AC68" s="176"/>
+      <c r="AD68" s="176"/>
+      <c r="AE68" s="176"/>
+      <c r="AF68" s="177"/>
+      <c r="AG68" s="169"/>
+      <c r="AH68" s="170"/>
     </row>
     <row r="69" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="82"/>
@@ -11578,16 +11860,16 @@
       <c r="V69" s="83"/>
       <c r="W69" s="83"/>
       <c r="X69" s="83"/>
-      <c r="Y69" s="195"/>
-      <c r="Z69" s="196"/>
-      <c r="AA69" s="197"/>
-      <c r="AB69" s="195"/>
-      <c r="AC69" s="196"/>
-      <c r="AD69" s="196"/>
-      <c r="AE69" s="196"/>
-      <c r="AF69" s="197"/>
-      <c r="AG69" s="210"/>
-      <c r="AH69" s="211"/>
+      <c r="Y69" s="175"/>
+      <c r="Z69" s="176"/>
+      <c r="AA69" s="177"/>
+      <c r="AB69" s="175"/>
+      <c r="AC69" s="176"/>
+      <c r="AD69" s="176"/>
+      <c r="AE69" s="176"/>
+      <c r="AF69" s="177"/>
+      <c r="AG69" s="169"/>
+      <c r="AH69" s="170"/>
     </row>
     <row r="70" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="82"/>
@@ -11614,22 +11896,24 @@
       <c r="V70" s="83"/>
       <c r="W70" s="83"/>
       <c r="X70" s="83"/>
-      <c r="Y70" s="195"/>
-      <c r="Z70" s="196"/>
-      <c r="AA70" s="197"/>
-      <c r="AB70" s="195"/>
-      <c r="AC70" s="196"/>
-      <c r="AD70" s="196"/>
-      <c r="AE70" s="196"/>
-      <c r="AF70" s="197"/>
-      <c r="AG70" s="210"/>
-      <c r="AH70" s="211"/>
+      <c r="Y70" s="175"/>
+      <c r="Z70" s="176"/>
+      <c r="AA70" s="177"/>
+      <c r="AB70" s="175"/>
+      <c r="AC70" s="176"/>
+      <c r="AD70" s="176"/>
+      <c r="AE70" s="176"/>
+      <c r="AF70" s="177"/>
+      <c r="AG70" s="169"/>
+      <c r="AH70" s="170"/>
     </row>
     <row r="71" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="82"/>
       <c r="D71" s="83"/>
       <c r="E71" s="85"/>
-      <c r="F71" s="83"/>
+      <c r="F71" s="92" t="s">
+        <v>33</v>
+      </c>
       <c r="G71" s="83"/>
       <c r="H71" s="83"/>
       <c r="I71" s="83"/>
@@ -11648,23 +11932,21 @@
       <c r="V71" s="83"/>
       <c r="W71" s="83"/>
       <c r="X71" s="83"/>
-      <c r="Y71" s="195"/>
-      <c r="Z71" s="196"/>
-      <c r="AA71" s="197"/>
-      <c r="AB71" s="195"/>
-      <c r="AC71" s="196"/>
-      <c r="AD71" s="196"/>
-      <c r="AE71" s="196"/>
-      <c r="AF71" s="197"/>
-      <c r="AG71" s="210"/>
-      <c r="AH71" s="211"/>
+      <c r="Y71" s="175"/>
+      <c r="Z71" s="176"/>
+      <c r="AA71" s="177"/>
+      <c r="AB71" s="175"/>
+      <c r="AC71" s="176"/>
+      <c r="AD71" s="176"/>
+      <c r="AE71" s="176"/>
+      <c r="AF71" s="177"/>
+      <c r="AG71" s="169"/>
+      <c r="AH71" s="170"/>
     </row>
     <row r="72" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="82"/>
       <c r="D72" s="83"/>
-      <c r="E72" s="83" t="s">
-        <v>33</v>
-      </c>
+      <c r="E72" s="83"/>
       <c r="F72" s="83"/>
       <c r="G72" s="83"/>
       <c r="H72" s="83"/>
@@ -11684,24 +11966,22 @@
       <c r="V72" s="83"/>
       <c r="W72" s="83"/>
       <c r="X72" s="83"/>
-      <c r="Y72" s="195"/>
-      <c r="Z72" s="196"/>
-      <c r="AA72" s="197"/>
-      <c r="AB72" s="195"/>
-      <c r="AC72" s="196"/>
-      <c r="AD72" s="196"/>
-      <c r="AE72" s="196"/>
-      <c r="AF72" s="197"/>
-      <c r="AG72" s="210"/>
-      <c r="AH72" s="211"/>
+      <c r="Y72" s="175"/>
+      <c r="Z72" s="176"/>
+      <c r="AA72" s="177"/>
+      <c r="AB72" s="175"/>
+      <c r="AC72" s="176"/>
+      <c r="AD72" s="176"/>
+      <c r="AE72" s="176"/>
+      <c r="AF72" s="177"/>
+      <c r="AG72" s="169"/>
+      <c r="AH72" s="170"/>
     </row>
     <row r="73" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="82"/>
       <c r="D73" s="83"/>
       <c r="E73" s="84"/>
-      <c r="F73" s="85" t="s">
-        <v>32</v>
-      </c>
+      <c r="F73" s="85"/>
       <c r="G73" s="83"/>
       <c r="H73" s="83"/>
       <c r="I73" s="83"/>
@@ -11720,16 +12000,16 @@
       <c r="V73" s="83"/>
       <c r="W73" s="83"/>
       <c r="X73" s="83"/>
-      <c r="Y73" s="195"/>
-      <c r="Z73" s="196"/>
-      <c r="AA73" s="197"/>
-      <c r="AB73" s="195"/>
-      <c r="AC73" s="196"/>
-      <c r="AD73" s="196"/>
-      <c r="AE73" s="196"/>
-      <c r="AF73" s="197"/>
-      <c r="AG73" s="210"/>
-      <c r="AH73" s="211"/>
+      <c r="Y73" s="175"/>
+      <c r="Z73" s="176"/>
+      <c r="AA73" s="177"/>
+      <c r="AB73" s="175"/>
+      <c r="AC73" s="176"/>
+      <c r="AD73" s="176"/>
+      <c r="AE73" s="176"/>
+      <c r="AF73" s="177"/>
+      <c r="AG73" s="169"/>
+      <c r="AH73" s="170"/>
     </row>
     <row r="74" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="82"/>
@@ -11754,24 +12034,22 @@
       <c r="V74" s="83"/>
       <c r="W74" s="83"/>
       <c r="X74" s="83"/>
-      <c r="Y74" s="195"/>
-      <c r="Z74" s="196"/>
-      <c r="AA74" s="197"/>
-      <c r="AB74" s="195"/>
-      <c r="AC74" s="196"/>
-      <c r="AD74" s="196"/>
-      <c r="AE74" s="196"/>
-      <c r="AF74" s="197"/>
-      <c r="AG74" s="210"/>
-      <c r="AH74" s="211"/>
+      <c r="Y74" s="175"/>
+      <c r="Z74" s="176"/>
+      <c r="AA74" s="177"/>
+      <c r="AB74" s="175"/>
+      <c r="AC74" s="176"/>
+      <c r="AD74" s="176"/>
+      <c r="AE74" s="176"/>
+      <c r="AF74" s="177"/>
+      <c r="AG74" s="169"/>
+      <c r="AH74" s="170"/>
     </row>
     <row r="75" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="82"/>
       <c r="D75" s="83"/>
       <c r="E75" s="83"/>
-      <c r="F75" s="83" t="s">
-        <v>34</v>
-      </c>
+      <c r="F75" s="83"/>
       <c r="G75" s="83"/>
       <c r="H75" s="83"/>
       <c r="I75" s="83"/>
@@ -11790,16 +12068,16 @@
       <c r="V75" s="83"/>
       <c r="W75" s="83"/>
       <c r="X75" s="83"/>
-      <c r="Y75" s="195"/>
-      <c r="Z75" s="196"/>
-      <c r="AA75" s="197"/>
-      <c r="AB75" s="195"/>
-      <c r="AC75" s="196"/>
-      <c r="AD75" s="196"/>
-      <c r="AE75" s="196"/>
-      <c r="AF75" s="197"/>
-      <c r="AG75" s="210"/>
-      <c r="AH75" s="211"/>
+      <c r="Y75" s="175"/>
+      <c r="Z75" s="176"/>
+      <c r="AA75" s="177"/>
+      <c r="AB75" s="175"/>
+      <c r="AC75" s="176"/>
+      <c r="AD75" s="176"/>
+      <c r="AE75" s="176"/>
+      <c r="AF75" s="177"/>
+      <c r="AG75" s="169"/>
+      <c r="AH75" s="170"/>
     </row>
     <row r="76" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="82"/>
@@ -11824,16 +12102,16 @@
       <c r="V76" s="83"/>
       <c r="W76" s="83"/>
       <c r="X76" s="83"/>
-      <c r="Y76" s="195"/>
-      <c r="Z76" s="196"/>
-      <c r="AA76" s="197"/>
-      <c r="AB76" s="195"/>
-      <c r="AC76" s="196"/>
-      <c r="AD76" s="196"/>
-      <c r="AE76" s="196"/>
-      <c r="AF76" s="197"/>
-      <c r="AG76" s="210"/>
-      <c r="AH76" s="211"/>
+      <c r="Y76" s="175"/>
+      <c r="Z76" s="176"/>
+      <c r="AA76" s="177"/>
+      <c r="AB76" s="175"/>
+      <c r="AC76" s="176"/>
+      <c r="AD76" s="176"/>
+      <c r="AE76" s="176"/>
+      <c r="AF76" s="177"/>
+      <c r="AG76" s="169"/>
+      <c r="AH76" s="170"/>
     </row>
     <row r="77" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="82"/>
@@ -11859,16 +12137,16 @@
       <c r="V77" s="83"/>
       <c r="W77" s="83"/>
       <c r="X77" s="83"/>
-      <c r="Y77" s="195"/>
-      <c r="Z77" s="196"/>
-      <c r="AA77" s="197"/>
-      <c r="AB77" s="195"/>
-      <c r="AC77" s="196"/>
-      <c r="AD77" s="196"/>
-      <c r="AE77" s="196"/>
-      <c r="AF77" s="197"/>
-      <c r="AG77" s="210"/>
-      <c r="AH77" s="211"/>
+      <c r="Y77" s="175"/>
+      <c r="Z77" s="176"/>
+      <c r="AA77" s="177"/>
+      <c r="AB77" s="175"/>
+      <c r="AC77" s="176"/>
+      <c r="AD77" s="176"/>
+      <c r="AE77" s="176"/>
+      <c r="AF77" s="177"/>
+      <c r="AG77" s="169"/>
+      <c r="AH77" s="170"/>
     </row>
     <row r="78" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="86"/>
@@ -11894,37 +12172,132 @@
       <c r="V78" s="87"/>
       <c r="W78" s="87"/>
       <c r="X78" s="87"/>
-      <c r="Y78" s="205"/>
-      <c r="Z78" s="206"/>
-      <c r="AA78" s="207"/>
-      <c r="AB78" s="205"/>
-      <c r="AC78" s="206"/>
-      <c r="AD78" s="206"/>
-      <c r="AE78" s="206"/>
-      <c r="AF78" s="207"/>
-      <c r="AG78" s="214"/>
-      <c r="AH78" s="215"/>
+      <c r="Y78" s="181"/>
+      <c r="Z78" s="182"/>
+      <c r="AA78" s="183"/>
+      <c r="AB78" s="181"/>
+      <c r="AC78" s="182"/>
+      <c r="AD78" s="182"/>
+      <c r="AE78" s="182"/>
+      <c r="AF78" s="183"/>
+      <c r="AG78" s="167"/>
+      <c r="AH78" s="168"/>
     </row>
     <row r="79" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AG70:AH70"/>
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="B43:AH43"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AB53:AF53"/>
+    <mergeCell ref="S45:W45"/>
+    <mergeCell ref="B53:X53"/>
+    <mergeCell ref="X45:AH45"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:W44"/>
+    <mergeCell ref="X44:AH44"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="Q37:AH37"/>
+    <mergeCell ref="Q38:AH38"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="N42:AH42"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="U33:AH33"/>
+    <mergeCell ref="B34:AH34"/>
+    <mergeCell ref="Q35:AH35"/>
+    <mergeCell ref="Q36:AH36"/>
+    <mergeCell ref="B25:AH25"/>
+    <mergeCell ref="B26:AH32"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:U24"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B39:AH39"/>
+    <mergeCell ref="N40:AH40"/>
+    <mergeCell ref="N41:AH41"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="AB78:AF78"/>
+    <mergeCell ref="AB69:AF69"/>
+    <mergeCell ref="AB70:AF70"/>
+    <mergeCell ref="AB71:AF71"/>
+    <mergeCell ref="AB72:AF72"/>
+    <mergeCell ref="AB73:AF73"/>
+    <mergeCell ref="AB64:AF64"/>
+    <mergeCell ref="AB65:AF65"/>
+    <mergeCell ref="AB66:AF66"/>
+    <mergeCell ref="AB67:AF67"/>
+    <mergeCell ref="AB68:AF68"/>
     <mergeCell ref="AG54:AH54"/>
     <mergeCell ref="AG55:AH55"/>
     <mergeCell ref="AG56:AH56"/>
@@ -11949,123 +12322,28 @@
     <mergeCell ref="AG66:AH66"/>
     <mergeCell ref="AG67:AH67"/>
     <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AB78:AF78"/>
-    <mergeCell ref="AB69:AF69"/>
-    <mergeCell ref="AB70:AF70"/>
-    <mergeCell ref="AB71:AF71"/>
-    <mergeCell ref="AB72:AF72"/>
-    <mergeCell ref="AB73:AF73"/>
-    <mergeCell ref="AB64:AF64"/>
-    <mergeCell ref="AB65:AF65"/>
-    <mergeCell ref="AB66:AF66"/>
-    <mergeCell ref="AB67:AF67"/>
-    <mergeCell ref="AB68:AF68"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="U33:AH33"/>
-    <mergeCell ref="B34:AH34"/>
-    <mergeCell ref="Q35:AH35"/>
-    <mergeCell ref="Q36:AH36"/>
-    <mergeCell ref="B25:AH25"/>
-    <mergeCell ref="B26:AH32"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:U24"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B39:AH39"/>
-    <mergeCell ref="N40:AH40"/>
-    <mergeCell ref="N41:AH41"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:W44"/>
-    <mergeCell ref="X44:AH44"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="Q37:AH37"/>
-    <mergeCell ref="Q38:AH38"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="N42:AH42"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B43:AH43"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="AB53:AF53"/>
-    <mergeCell ref="S45:W45"/>
-    <mergeCell ref="B53:X53"/>
-    <mergeCell ref="X45:AH45"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AG70:AH70"/>
+    <mergeCell ref="AG71:AH71"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AG77:AH77"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J36:J38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J36:J38" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"I,O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O36:P38 J41:M42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O36:P38 J41:M42" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>
